--- a/25-26总表.xlsx
+++ b/25-26总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26水岸/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE52DE1-757E-E145-9595-02D2F26EB823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C9A617-5B58-944E-8154-A6454D9BB52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="660" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="物业报备表" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">车库库存!$S$1:$S$9863</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">车库库存!$S$1:$S$9862</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="525">
   <si>
     <t>序列号</t>
   </si>
@@ -1167,9 +1167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哈弗大狗</t>
-  </si>
-  <si>
     <t>电瓶60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1284,9 +1281,6 @@
     <t>浙G金华</t>
   </si>
   <si>
-    <t>2026/1</t>
-  </si>
-  <si>
     <t>浙G5N60W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1395,9 +1389,6 @@
   <si>
     <t>物流2850</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/1</t>
   </si>
   <si>
     <t>云D曲靖</t>
@@ -1914,12 +1905,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>鄂B76871</t>
-  </si>
-  <si>
-    <t>鄂B黄石</t>
-  </si>
-  <si>
     <t>2021/1</t>
   </si>
   <si>
@@ -1930,15 +1915,6 @@
   </si>
   <si>
     <t>闽C泉州</t>
-  </si>
-  <si>
-    <t>闽C8LG15</t>
-  </si>
-  <si>
-    <t>奔腾T90</t>
-  </si>
-  <si>
-    <t>8000km</t>
   </si>
   <si>
     <t>2015/4</t>
@@ -1977,7 +1953,116 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内部价格表2025-2-15</t>
+    <t>物流2400,加油454</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷途旅行者</t>
+  </si>
+  <si>
+    <t>捷途旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/7</t>
+  </si>
+  <si>
+    <t>2400km</t>
+  </si>
+  <si>
+    <t>2400km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙B597CW</t>
+  </si>
+  <si>
+    <t>浙B597CW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙B宁波</t>
+  </si>
+  <si>
+    <t>浙B宁波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8座</t>
+  </si>
+  <si>
+    <t>长安欧尚Z6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新QF61124</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘C3FY78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤LL9P10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安欧尚X7 Plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂B7B127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北汽魔方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁MZQ261</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁M滨州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘C湘潭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态正常，带大本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新Q喀什</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/7</t>
+  </si>
+  <si>
+    <t>2026/7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部价格表2025-2-16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2170,7 +2255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,6 +2395,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2634,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
-  <dimension ref="A1:W9863"/>
+  <dimension ref="A1:W9862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2656,7 +2747,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -2727,10 +2818,10 @@
         <v>14</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R2" s="17" t="s">
         <v>15</v>
@@ -2746,7 +2837,7 @@
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2859,7 +2950,7 @@
         <v>60</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
@@ -2926,7 +3017,7 @@
         <v>60</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
@@ -2993,7 +3084,7 @@
         <v>130</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
@@ -3060,7 +3151,7 @@
         <v>1330</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
@@ -3212,7 +3303,7 @@
         <v>30</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -3341,7 +3432,7 @@
         <v>30</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="W11" s="10"/>
     </row>
@@ -3457,7 +3548,7 @@
         <v>1260</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="1">
@@ -3603,7 +3694,7 @@
         <v>30</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W15" s="37">
         <v>15</v>
@@ -3654,7 +3745,7 @@
         <v>1660</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="1">
@@ -3669,7 +3760,7 @@
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="W16" s="6">
         <v>16</v>
@@ -3720,7 +3811,7 @@
         <v>1020</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="1">
@@ -3985,7 +4076,7 @@
         <v>1300</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="1">
@@ -4249,7 +4340,7 @@
         <v>3610</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P25" s="18">
         <v>35000</v>
@@ -4319,7 +4410,7 @@
         <v>1880</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="1">
@@ -4361,7 +4452,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>20</v>
@@ -4385,7 +4476,7 @@
         <v>22280</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="1">
@@ -4412,7 +4503,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>148</v>
@@ -4451,7 +4542,7 @@
         <v>830</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="1">
@@ -4478,7 +4569,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>289</v>
@@ -4517,7 +4608,7 @@
         <v>1420</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="1">
@@ -4546,7 +4637,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7"/>
@@ -4564,7 +4655,7 @@
         <v>26685</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="1">
@@ -4591,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
@@ -4609,7 +4700,7 @@
         <v>24185</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="1">
@@ -4636,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
@@ -4654,7 +4745,7 @@
         <v>26985</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="1">
@@ -4672,7 +4763,7 @@
         <v>30</v>
       </c>
       <c r="V32" s="42" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="372">
@@ -4684,7 +4775,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
@@ -4702,7 +4793,7 @@
         <v>26985</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="1">
@@ -4720,7 +4811,7 @@
         <v>30</v>
       </c>
       <c r="V33" s="42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4729,13 +4820,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>284</v>
@@ -4780,7 +4871,7 @@
         <v>30</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W34" s="6">
         <v>34</v>
@@ -4792,13 +4883,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>229</v>
@@ -4831,7 +4922,7 @@
         <v>1950</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="1">
@@ -4858,7 +4949,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>228</v>
@@ -4867,13 +4958,13 @@
         <v>244</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F36" s="12">
         <v>3.8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>20</v>
@@ -4924,7 +5015,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>289</v>
@@ -4939,7 +5030,7 @@
         <v>2.9</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
@@ -4963,7 +5054,7 @@
         <v>700</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="1">
@@ -4990,10 +5081,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>244</v>
@@ -5005,7 +5096,7 @@
         <v>3.7</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>20</v>
@@ -5029,7 +5120,7 @@
         <v>850</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="1">
@@ -5056,13 +5147,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>24</v>
@@ -5071,7 +5162,7 @@
         <v>4.7</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>33</v>
@@ -5095,7 +5186,7 @@
         <v>2400</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="1">
@@ -5122,10 +5213,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>281</v>
@@ -5161,7 +5252,7 @@
         <v>2850</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="1">
@@ -5188,13 +5279,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>274</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>241</v>
@@ -5237,7 +5328,7 @@
         <v>30</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="W41" s="6">
         <v>43</v>
@@ -5249,16 +5340,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F42" s="12">
         <v>2.4</v>
@@ -5309,7 +5400,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>125</v>
@@ -5359,7 +5450,7 @@
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="W43" s="6">
         <v>45</v>
@@ -5372,7 +5463,7 @@
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7"/>
@@ -5390,7 +5481,7 @@
         <v>11003</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="1">
@@ -5416,10 +5507,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>151</v>
@@ -5437,7 +5528,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>22</v>
@@ -5453,7 +5544,7 @@
         <v>1900</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="1">
@@ -5471,7 +5562,7 @@
         <v>30</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="W45" s="6">
         <v>48</v>
@@ -5483,13 +5574,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>122</v>
@@ -5504,7 +5595,7 @@
         <v>20</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>22</v>
@@ -5513,7 +5604,7 @@
         <v>29</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M46" s="3">
         <v>43000</v>
@@ -5522,7 +5613,7 @@
         <v>2200</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="1">
@@ -5549,10 +5640,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>27</v>
@@ -5588,7 +5679,7 @@
         <v>1900</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="1">
@@ -5615,7 +5706,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>197</v>
@@ -5630,7 +5721,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>33</v>
@@ -5645,7 +5736,7 @@
         <v>29</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M48" s="3">
         <v>33500</v>
@@ -5654,7 +5745,7 @@
         <v>2400</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="1">
@@ -5681,13 +5772,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>239</v>
@@ -5696,7 +5787,7 @@
         <v>2.4</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>33</v>
@@ -5748,7 +5839,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>243</v>
@@ -5757,13 +5848,13 @@
         <v>117</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F50" s="3">
         <v>1.4</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>20</v>
@@ -5810,13 +5901,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>40</v>
@@ -5849,7 +5940,7 @@
         <v>2900</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P51" s="18">
         <v>47000</v>
@@ -5880,13 +5971,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>101</v>
@@ -5910,7 +6001,7 @@
         <v>29</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -5940,13 +6031,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>37</v>
@@ -5979,7 +6070,7 @@
         <v>1260</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="1">
@@ -6006,10 +6097,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>117</v>
@@ -6021,7 +6112,7 @@
         <v>0.8</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>20</v>
@@ -6072,10 +6163,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>256</v>
@@ -6111,7 +6202,7 @@
         <v>2490</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="1">
@@ -6138,7 +6229,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>282</v>
@@ -6204,10 +6295,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>130</v>
@@ -6270,13 +6361,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>209</v>
@@ -6285,7 +6376,7 @@
         <v>3.8</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>20</v>
@@ -6309,7 +6400,7 @@
         <v>1260</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="1">
@@ -6336,13 +6427,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>245</v>
@@ -6351,7 +6442,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>33</v>
@@ -6375,7 +6466,7 @@
         <v>1260</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P59" s="18">
         <v>39000</v>
@@ -6406,7 +6497,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>112</v>
@@ -6421,7 +6512,7 @@
         <v>3.8</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>33</v>
@@ -6466,69 +6557,69 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" s="21" customFormat="1">
       <c r="A61" s="24">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="18">
         <v>5.2</v>
       </c>
-      <c r="G61" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H61" s="12" t="s">
+      <c r="G61" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="H61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="18">
         <v>38000</v>
       </c>
-      <c r="N61" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="1">
+      <c r="N61" s="18">
+        <v>2854</v>
+      </c>
+      <c r="O61" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18">
         <f t="shared" si="1"/>
-        <v>-40400</v>
-      </c>
-      <c r="R61" s="8">
+        <v>-40854</v>
+      </c>
+      <c r="R61" s="20">
         <v>45682</v>
       </c>
-      <c r="S61" s="3" t="s">
+      <c r="S61" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="T61" s="8"/>
-      <c r="U61" s="3" t="s">
+      <c r="T61" s="20"/>
+      <c r="U61" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W61" s="6">
+      <c r="W61" s="21">
         <v>72</v>
       </c>
     </row>
@@ -6538,13 +6629,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C62" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>122</v>
@@ -6563,7 +6654,7 @@
         <v>700</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="1">
@@ -6591,8 +6682,9 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="12" t="s">
-        <v>441</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D63" s="11"/>
       <c r="E63" s="7"/>
       <c r="F63" s="3"/>
       <c r="G63" s="12"/>
@@ -6626,13 +6718,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>320</v>
+        <v>446</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>283</v>
@@ -6665,7 +6757,7 @@
         <v>2900</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="1">
@@ -6686,69 +6778,71 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" s="21" customFormat="1">
       <c r="A65" s="24">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="B65" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L65" s="7" t="s">
+      <c r="L65" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="18">
         <v>34000</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65" s="18">
         <v>2900</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="1">
+      <c r="O65" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18">
         <f t="shared" ref="Q65:Q67" si="3">P65-M65-N65</f>
         <v>-36900</v>
       </c>
-      <c r="R65" s="8">
+      <c r="R65" s="20">
         <v>45683</v>
       </c>
-      <c r="S65" s="3" t="s">
+      <c r="S65" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T65" s="8"/>
-      <c r="U65" s="3" t="s">
+      <c r="T65" s="20">
+        <v>45704</v>
+      </c>
+      <c r="U65" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W65" s="6">
+      <c r="W65" s="21">
         <v>76</v>
       </c>
     </row>
@@ -6758,12 +6852,12 @@
         <v>64</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -6794,7 +6888,7 @@
         <v>2000</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P66" s="18">
         <v>42000</v>
@@ -6825,12 +6919,12 @@
         <v>65</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="D67" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E67" s="19" t="s">
@@ -6840,7 +6934,7 @@
         <v>5.8</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>20</v>
@@ -6855,7 +6949,7 @@
         <v>29</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M67" s="18">
         <v>45000</v>
@@ -6895,13 +6989,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>319</v>
+        <v>453</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>318</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>242</v>
@@ -6922,7 +7016,7 @@
         <v>3750</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P68" s="18">
         <v>42000</v>
@@ -6931,7 +7025,9 @@
         <f t="shared" ref="Q68" si="4">P68-M68-N68</f>
         <v>6250</v>
       </c>
-      <c r="R68" s="20"/>
+      <c r="R68" s="20">
+        <v>45699</v>
+      </c>
       <c r="S68" s="18" t="s">
         <v>25</v>
       </c>
@@ -6944,26 +7040,26 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="24">
-        <f t="shared" ref="A69:A130" si="5">ROW()-2</f>
+        <f t="shared" ref="A69:A129" si="5">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>464</v>
+      <c r="D69" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F69" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>20</v>
@@ -7014,12 +7110,12 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="11" t="s">
         <v>189</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -7053,7 +7149,7 @@
         <v>1380</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="1">
@@ -7080,13 +7176,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>342</v>
+      <c r="D71" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>52</v>
@@ -7115,7 +7211,7 @@
         <v>2300</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="1">
@@ -7142,13 +7238,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D72" s="21" t="s">
-        <v>469</v>
+      <c r="D72" s="26" t="s">
+        <v>466</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>67</v>
@@ -7157,7 +7253,7 @@
         <v>5.2</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>20</v>
@@ -7181,7 +7277,7 @@
         <v>2250</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P72" s="18">
         <v>50000</v>
@@ -7212,12 +7308,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D73" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>151</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -7249,7 +7345,7 @@
         <v>1700</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="1">
@@ -7276,13 +7372,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>320</v>
+      <c r="D74" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>101</v>
@@ -7306,7 +7402,7 @@
         <v>29</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M74" s="3">
         <v>39000</v>
@@ -7315,7 +7411,7 @@
         <v>2900</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="1">
@@ -7332,42 +7428,316 @@
       <c r="U74" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="W74" s="6">
+        <v>84</v>
+      </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="24">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
+      <c r="B75" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M75" s="3">
+        <v>57000</v>
+      </c>
+      <c r="N75" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="1">
+        <f t="shared" ref="Q75" si="8">P75-M75-N75</f>
+        <v>-60000</v>
+      </c>
+      <c r="R75" s="8">
+        <v>45704</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" s="8"/>
+      <c r="U75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W75" s="6">
+        <v>85</v>
+      </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="24">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="1">
+        <f t="shared" ref="Q76:Q80" si="9">P76-M76-N76</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="8"/>
+      <c r="S76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" s="8"/>
+      <c r="U76" s="3" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="24">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
+      <c r="B77" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="8"/>
+      <c r="S77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77" s="8"/>
+      <c r="U77" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="24">
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
+      <c r="B78" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="8"/>
+      <c r="S78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" s="8"/>
+      <c r="U78" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="24">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
+      <c r="B79" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="8"/>
+      <c r="S79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T79" s="8"/>
+      <c r="U79" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="24">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
+      <c r="B80" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="8"/>
+      <c r="S80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T80" s="8"/>
+      <c r="U80" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="24">
@@ -7665,2624 +8035,2624 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A130:A193" si="10">ROW()-2</f>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="24">
-        <f t="shared" ref="A131:A194" si="8">ROW()-2</f>
+        <f t="shared" si="10"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A194:A257" si="11">ROW()-2</f>
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="24">
-        <f t="shared" ref="A195:A258" si="9">ROW()-2</f>
+        <f t="shared" si="11"/>
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A258:A321" si="12">ROW()-2</f>
         <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="24">
-        <f t="shared" ref="A259:A322" si="10">ROW()-2</f>
+        <f t="shared" si="12"/>
         <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A322:A385" si="13">ROW()-2</f>
         <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="24">
-        <f t="shared" ref="A323:A386" si="11">ROW()-2</f>
+        <f t="shared" si="13"/>
         <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A386:A449" si="14">ROW()-2</f>
         <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="24">
-        <f t="shared" ref="A387:A450" si="12">ROW()-2</f>
+        <f t="shared" si="14"/>
         <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>422</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>431</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>433</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>440</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>441</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>443</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>446</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>447</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A450:A513" si="15">ROW()-2</f>
         <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="24">
-        <f t="shared" ref="A451:A514" si="13">ROW()-2</f>
+        <f t="shared" si="15"/>
         <v>449</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>453</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>454</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>455</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>457</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>458</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>459</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>461</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>462</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>463</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>464</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>465</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>466</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>467</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>468</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>470</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>471</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>472</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>473</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>474</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>476</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>477</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>478</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>480</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>481</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>482</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>484</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>486</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>487</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>490</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>491</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>492</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>493</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>494</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>495</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>496</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>497</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>498</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>502</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>503</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>504</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>506</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>507</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>510</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>511</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A514:A565" si="16">ROW()-2</f>
         <v>512</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="24">
-        <f t="shared" ref="A515:A566" si="14">ROW()-2</f>
+        <f t="shared" si="16"/>
         <v>513</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>515</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>516</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>517</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>518</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>520</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>521</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>522</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>523</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>524</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>525</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>526</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>527</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>528</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>529</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>530</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>531</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>532</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>533</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>534</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>538</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>540</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>541</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>544</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>546</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>548</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>550</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>551</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>552</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>554</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>555</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>556</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>557</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>558</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>559</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>560</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>562</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="24">
-        <f t="shared" si="14"/>
-        <v>564</v>
+      <c r="A566" s="6">
+        <f>ROW()</f>
+        <v>566</v>
       </c>
     </row>
     <row r="567" spans="1:1">
@@ -66061,20 +66431,14 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="9863" spans="1:1">
-      <c r="A9863" s="6">
-        <f>ROW()</f>
-        <v>9863</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="S1:S9863" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}"/>
+  <autoFilter ref="S1:S9862" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S74" xr:uid="{3707277B-7B63-CE41-BE27-63742A3F8D35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S80" xr:uid="{3707277B-7B63-CE41-BE27-63742A3F8D35}">
       <formula1>"已售,在库"</formula1>
     </dataValidation>
   </dataValidations>
@@ -66085,10 +66449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E90EA8-8F58-3C40-AEB7-BD99C8550EC6}">
-  <dimension ref="A2:M57"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:L57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -66102,62 +66466,104 @@
     <col min="13" max="13" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" ht="32">
-      <c r="A3" s="16" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" ht="32">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="24">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -66166,28 +66572,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1">
         <v>3.6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -66196,7 +66602,7 @@
         <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>30</v>
@@ -66204,29 +66610,29 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="24">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A5:A55" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>28</v>
@@ -66238,7 +66644,7 @@
         <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>30</v>
@@ -66246,32 +66652,32 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="24">
-        <f t="shared" ref="A6:A57" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
@@ -66280,7 +66686,7 @@
         <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>30</v>
@@ -66292,28 +66698,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -66322,7 +66728,7 @@
         <v>29</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>30</v>
@@ -66334,28 +66740,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
@@ -66364,7 +66770,7 @@
         <v>29</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>30</v>
@@ -66375,41 +66781,41 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
+      <c r="L9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -66418,28 +66824,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F10" s="3">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>22</v>
@@ -66448,10 +66854,10 @@
         <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -66460,28 +66866,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F11" s="3">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>149</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>22</v>
@@ -66490,7 +66896,7 @@
         <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>30</v>
@@ -66501,40 +66907,40 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="B12" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="34">
         <v>3.2</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="G12" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -66543,41 +66949,41 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="34">
-        <v>3.2</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>30</v>
+      <c r="B13" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -66585,41 +66991,41 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>196</v>
+      <c r="B14" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>202</v>
+        <v>212</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>175</v>
+        <v>38</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>412</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -66628,40 +67034,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="F15" s="12">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>38</v>
+      <c r="I15" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -66669,38 +67075,38 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>218</v>
+      <c r="B16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="F16" s="12">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>30</v>
@@ -66712,36 +67118,36 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="2" t="s">
         <v>153</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -66753,38 +67159,38 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="B18" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>153</v>
+      <c r="L18" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>30</v>
@@ -66795,38 +67201,38 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>156</v>
+      <c r="B19" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F19" s="3">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>30</v>
@@ -66838,37 +67244,37 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F20" s="3">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>30</v>
@@ -66880,28 +67286,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="F21" s="3">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>22</v>
@@ -66910,7 +67316,7 @@
         <v>29</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>30</v>
@@ -66921,29 +67327,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>270</v>
+      <c r="B22" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="F22" s="3">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>22</v>
@@ -66952,7 +67358,7 @@
         <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>30</v>
@@ -66964,37 +67370,37 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2.6</v>
+        <v>292</v>
+      </c>
+      <c r="F23" s="12">
+        <v>16.600000000000001</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>30</v>
@@ -67006,37 +67412,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="F24" s="12">
-        <v>16.600000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>30</v>
@@ -67048,37 +67454,37 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F25" s="12">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>30</v>
@@ -67090,37 +67496,37 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="F26" s="12">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>30</v>
@@ -67132,28 +67538,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="F27" s="12">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>22</v>
@@ -67162,7 +67568,7 @@
         <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>30</v>
@@ -67174,25 +67580,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="F28" s="12">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>21</v>
@@ -67204,7 +67610,7 @@
         <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>30</v>
@@ -67216,37 +67622,37 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="F29" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>297</v>
+        <v>2.9</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>30</v>
@@ -67261,19 +67667,19 @@
         <v>341</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="F30" s="12">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>20</v>
@@ -67282,13 +67688,13 @@
         <v>28</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>30</v>
@@ -67300,25 +67706,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>244</v>
+        <v>345</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="F31" s="12">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>28</v>
@@ -67330,7 +67736,7 @@
         <v>29</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>30</v>
@@ -67341,29 +67747,29 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>346</v>
+      <c r="B32" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F32" s="12">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>33</v>
+        <v>273</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>22</v>
@@ -67372,7 +67778,7 @@
         <v>29</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>30</v>
@@ -67384,37 +67790,37 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="F33" s="12">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>30</v>
@@ -67429,34 +67835,34 @@
         <v>356</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="F34" s="12">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>30</v>
@@ -67467,41 +67873,41 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>359</v>
+      <c r="B35" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>360</v>
+        <v>125</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>361</v>
+        <v>142</v>
       </c>
       <c r="F35" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>147</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>30</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -67510,40 +67916,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="F36" s="12">
-        <v>2.2000000000000002</v>
+        <v>5.4</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>21</v>
+        <v>372</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>411</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -67552,28 +67958,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F37" s="12">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>22</v>
@@ -67582,7 +67988,7 @@
         <v>29</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>30</v>
@@ -67594,37 +68000,37 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>384</v>
+        <v>27</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F38" s="12">
-        <v>5.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>385</v>
+        <v>28</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>30</v>
@@ -67636,22 +68042,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>363</v>
+        <v>197</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="12">
-        <v>4.0999999999999996</v>
+        <v>263</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>33</v>
@@ -67666,7 +68072,7 @@
         <v>29</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>254</v>
+        <v>348</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>30</v>
@@ -67677,40 +68083,40 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="D40" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="I40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M40" s="3" t="s">
+      <c r="K40" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -67719,40 +68125,40 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="M41" s="31" t="s">
+      <c r="B41" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -67762,37 +68168,37 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>219</v>
+        <v>399</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>493</v>
+        <v>101</v>
       </c>
       <c r="F42" s="3">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>30</v>
@@ -67807,34 +68213,34 @@
         <v>400</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F43" s="3">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>30</v>
@@ -67846,37 +68252,37 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="F44" s="3">
-        <v>2.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>30</v>
@@ -67888,37 +68294,37 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="F45" s="3">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>30</v>
@@ -67930,37 +68336,37 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="F46" s="3">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>30</v>
@@ -67972,37 +68378,37 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="F47" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>30</v>
@@ -68014,25 +68420,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>54</v>
+        <v>417</v>
       </c>
       <c r="F48" s="3">
         <v>3.8</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>174</v>
@@ -68044,7 +68450,7 @@
         <v>170</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>30</v>
@@ -68056,25 +68462,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="F49" s="3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>427</v>
+        <v>287</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>174</v>
@@ -68086,7 +68492,7 @@
         <v>170</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>30</v>
@@ -68098,28 +68504,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>294</v>
+        <v>455</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>486</v>
+        <v>370</v>
       </c>
       <c r="F50" s="3">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>338</v>
+        <v>474</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>169</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>164</v>
@@ -68128,7 +68534,7 @@
         <v>170</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>30</v>
@@ -68140,37 +68546,37 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>488</v>
+        <v>205</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>489</v>
+        <v>204</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>486</v>
+        <v>226</v>
       </c>
       <c r="F51" s="3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>30</v>
@@ -68182,25 +68588,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="F52" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>492</v>
+        <v>336</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>174</v>
@@ -68212,7 +68618,7 @@
         <v>170</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>30</v>
@@ -68224,28 +68630,28 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="F53" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>477</v>
+        <v>336</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>164</v>
@@ -68254,7 +68660,7 @@
         <v>170</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>30</v>
@@ -68265,38 +68671,38 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>461</v>
+      <c r="B54" s="3" t="s">
+        <v>493</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>204</v>
+        <v>282</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="F54" s="3">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>475</v>
+        <v>280</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>30</v>
@@ -68307,26 +68713,26 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>465</v>
+      <c r="B55" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>467</v>
+        <v>496</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="F55" s="3">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>338</v>
+        <v>499</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>174</v>
@@ -68338,102 +68744,18 @@
         <v>170</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>248</v>
+        <v>522</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="24">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="24">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A4:L57">
+  <conditionalFormatting sqref="A3:L55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -68444,10 +68766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A280AE-6CDB-F940-8F0F-7F575BF9ED92}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -68726,10 +69048,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -68800,7 +69122,7 @@
         <v>125</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="6"/>
@@ -68845,10 +69167,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -68862,7 +69184,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>289</v>
@@ -68879,7 +69201,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>197</v>
@@ -68896,7 +69218,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>165</v>
@@ -68913,10 +69235,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>316</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -68930,10 +69252,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -68947,10 +69269,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
@@ -68964,7 +69286,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>289</v>
@@ -68981,10 +69303,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
@@ -68999,7 +69321,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
@@ -69013,7 +69335,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>253</v>
@@ -69030,10 +69352,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
@@ -69047,7 +69369,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>197</v>
@@ -69064,7 +69386,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>125</v>
@@ -69081,7 +69403,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>206</v>
@@ -69098,7 +69420,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>253</v>
@@ -69115,7 +69437,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>55</v>
@@ -69132,10 +69454,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D40" s="6">
         <v>2</v>
@@ -69149,7 +69471,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>197</v>
@@ -69166,7 +69488,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>197</v>
@@ -69183,10 +69505,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
@@ -69200,7 +69522,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>187</v>
@@ -69217,7 +69539,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>282</v>
@@ -69232,7 +69554,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>197</v>
@@ -69247,10 +69569,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
@@ -69262,7 +69584,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>112</v>
@@ -69277,7 +69599,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>112</v>
@@ -69291,11 +69613,11 @@
         <f>ROW()</f>
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>253</v>
+      <c r="B50" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
@@ -69306,11 +69628,11 @@
         <f>ROW()</f>
         <v>51</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>449</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
@@ -69322,10 +69644,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>451</v>
+        <v>272</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
@@ -69337,10 +69659,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -69352,10 +69674,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
@@ -69367,10 +69689,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
@@ -69382,24 +69704,9 @@
         <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D56" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6">
-        <f>ROW()</f>
-        <v>57</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C57" s="12" t="s">
         <v>282</v>
       </c>
     </row>

--- a/25-26总表.xlsx
+++ b/25-26总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26水岸/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C9A617-5B58-944E-8154-A6454D9BB52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A64360E-A477-B24F-A214-46E95775F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="660" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
+    <workbookView xWindow="1720" yWindow="660" windowWidth="27080" windowHeight="16440" activeTab="2" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
   <sheets>
     <sheet name="车库库存" sheetId="3" r:id="rId1"/>
@@ -2391,16 +2391,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2727,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
   <dimension ref="A1:W9862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2746,29 +2746,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
       <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:23" ht="32">
@@ -6604,18 +6604,22 @@
       <c r="O61" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="P61" s="18"/>
+      <c r="P61" s="18">
+        <v>50000</v>
+      </c>
       <c r="Q61" s="18">
         <f t="shared" si="1"/>
-        <v>-40854</v>
+        <v>9146</v>
       </c>
       <c r="R61" s="20">
         <v>45682</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T61" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="T61" s="20">
+        <v>45705</v>
+      </c>
       <c r="U61" s="18" t="s">
         <v>30</v>
       </c>
@@ -6783,10 +6787,10 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="45" t="s">
         <v>449</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="46" t="s">
         <v>448</v>
       </c>
       <c r="D65" s="26" t="s">
@@ -66452,7 +66456,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -66467,21 +66471,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="32">
       <c r="A2" s="16" t="s">
@@ -68768,8 +68772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A280AE-6CDB-F940-8F0F-7F575BF9ED92}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/25-26总表.xlsx
+++ b/25-26总表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26水岸/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A64360E-A477-B24F-A214-46E95775F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A2DA58-7D34-8947-ACA4-D50F5B4A491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="660" windowWidth="27080" windowHeight="16440" activeTab="2" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
+    <workbookView xWindow="760" yWindow="640" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
   <sheets>
     <sheet name="车库库存" sheetId="3" r:id="rId1"/>
     <sheet name="内部价表" sheetId="5" r:id="rId2"/>
     <sheet name="物业报备表" sheetId="6" r:id="rId3"/>
+    <sheet name="临时表" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">车库库存!$S$1:$S$9862</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="555">
   <si>
     <t>序列号</t>
   </si>
@@ -992,12 +993,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025/7</t>
-  </si>
-  <si>
-    <t>捷途X70 Plus</t>
-  </si>
-  <si>
     <t>鄂QMB000</t>
   </si>
   <si>
@@ -1809,9 +1804,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023/7</t>
-  </si>
-  <si>
     <t>捷途大圣</t>
   </si>
   <si>
@@ -1837,13 +1829,7 @@
   </si>
   <si>
     <t>冀A218DX</t>
-  </si>
-  <si>
-    <t>冀A218DX</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冀A石家庄</t>
   </si>
   <si>
     <t>鲁A31QT8</t>
@@ -1988,9 +1974,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8座</t>
-  </si>
-  <si>
     <t>长安欧尚Z6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2035,10 +2018,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2026/14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.7L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2062,7 +2041,121 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内部价格表2025-2-16</t>
+    <t>物流2600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027/1</t>
+  </si>
+  <si>
+    <t>10000km</t>
+  </si>
+  <si>
+    <t>粤LL9P10</t>
+  </si>
+  <si>
+    <t>长安欧尚X7 Plus</t>
+  </si>
+  <si>
+    <t>粤L惠州</t>
+  </si>
+  <si>
+    <t>内部价格表2025-2-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调表</t>
+  </si>
+  <si>
+    <t>调表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>车牌</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>捷途x70</t>
+  </si>
+  <si>
+    <t>浙J1T72F</t>
+  </si>
+  <si>
+    <t>配钥匙+配机械钥匙+屏蔽钥匙+调表</t>
+  </si>
+  <si>
+    <t>哈弗大狗</t>
+  </si>
+  <si>
+    <t>鄂B76871</t>
+  </si>
+  <si>
+    <t>传奇gs8</t>
+  </si>
+  <si>
+    <t>屏蔽钥匙</t>
+  </si>
+  <si>
+    <t>瑞虎8</t>
+  </si>
+  <si>
+    <t>配钥匙</t>
+  </si>
+  <si>
+    <t>比亚迪秦</t>
+  </si>
+  <si>
+    <t>川ABL7196</t>
+  </si>
+  <si>
+    <t>埃安s</t>
+  </si>
+  <si>
+    <t>川RDD0939</t>
+  </si>
+  <si>
+    <t>川粤EDN8081</t>
+  </si>
+  <si>
+    <t>捷途山海T2</t>
+  </si>
+  <si>
+    <t>贵EFA2122</t>
+  </si>
+  <si>
+    <t>订钥匙</t>
+  </si>
+  <si>
+    <t>宝马i3</t>
+  </si>
+  <si>
+    <t>配钥匙+屏蔽钥匙+调表</t>
+  </si>
+  <si>
+    <t>长安Uniz</t>
+  </si>
+  <si>
+    <t>闽FF51117</t>
+  </si>
+  <si>
+    <t>奔驰GLE</t>
+  </si>
+  <si>
+    <t>湘UGE155</t>
+  </si>
+  <si>
+    <t>桂BA31722</t>
+  </si>
+  <si>
+    <t>捷途x70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2073,7 +2166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2145,6 +2238,13 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -2255,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2391,16 +2491,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2727,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
   <dimension ref="A1:W9862"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2746,29 +2852,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
+      <c r="A1" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:23" ht="32">
@@ -2818,10 +2924,10 @@
         <v>14</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R2" s="17" t="s">
         <v>15</v>
@@ -2837,7 +2943,7 @@
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2950,7 +3056,7 @@
         <v>60</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
@@ -3017,7 +3123,7 @@
         <v>60</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
@@ -3084,7 +3190,7 @@
         <v>130</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
@@ -3151,7 +3257,7 @@
         <v>1330</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
@@ -3303,7 +3409,7 @@
         <v>30</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -3432,7 +3538,7 @@
         <v>30</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W11" s="10"/>
     </row>
@@ -3548,7 +3654,7 @@
         <v>1260</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="1">
@@ -3615,7 +3721,7 @@
         <v>5580</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="1">
@@ -3694,7 +3800,7 @@
         <v>30</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W15" s="37">
         <v>15</v>
@@ -3745,7 +3851,7 @@
         <v>1660</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="1">
@@ -3760,7 +3866,7 @@
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="W16" s="6">
         <v>16</v>
@@ -3811,7 +3917,7 @@
         <v>1020</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="1">
@@ -4037,7 +4143,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>156</v>
@@ -4052,7 +4158,7 @@
         <v>3.2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>20</v>
@@ -4076,7 +4182,7 @@
         <v>1300</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="1">
@@ -4103,7 +4209,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>125</v>
@@ -4118,7 +4224,7 @@
         <v>1.8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>20</v>
@@ -4169,10 +4275,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
@@ -4184,7 +4290,7 @@
         <v>3.4</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>20</v>
@@ -4208,7 +4314,7 @@
         <v>350</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="1">
@@ -4235,16 +4341,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F24" s="3">
         <v>2.7</v>
@@ -4301,16 +4407,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F25" s="18">
         <v>3.4</v>
@@ -4340,7 +4446,7 @@
         <v>3610</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P25" s="18">
         <v>35000</v>
@@ -4371,7 +4477,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -4386,7 +4492,7 @@
         <v>2.6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>20</v>
@@ -4410,7 +4516,7 @@
         <v>1880</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="1">
@@ -4437,28 +4543,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F27" s="12">
         <v>16.600000000000001</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>233</v>
@@ -4476,7 +4582,7 @@
         <v>22280</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="1">
@@ -4503,7 +4609,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>148</v>
@@ -4542,7 +4648,7 @@
         <v>830</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="1">
@@ -4569,10 +4675,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>132</v>
@@ -4608,7 +4714,7 @@
         <v>1420</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="1">
@@ -4637,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7"/>
@@ -4655,7 +4761,7 @@
         <v>26685</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="1">
@@ -4682,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
@@ -4700,7 +4806,7 @@
         <v>24185</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="1">
@@ -4727,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
@@ -4745,7 +4851,7 @@
         <v>26985</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="1">
@@ -4763,7 +4869,7 @@
         <v>30</v>
       </c>
       <c r="V32" s="42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="372">
@@ -4775,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
@@ -4793,7 +4899,7 @@
         <v>26985</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="1">
@@ -4811,7 +4917,7 @@
         <v>30</v>
       </c>
       <c r="V33" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4820,16 +4926,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F34" s="12">
         <v>4.8</v>
@@ -4871,7 +4977,7 @@
         <v>30</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="W34" s="6">
         <v>34</v>
@@ -4883,13 +4989,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>229</v>
@@ -4898,7 +5004,7 @@
         <v>3.4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>103</v>
@@ -4922,7 +5028,7 @@
         <v>1950</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="1">
@@ -4949,7 +5055,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>228</v>
@@ -4958,13 +5064,13 @@
         <v>244</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F36" s="12">
         <v>3.8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>20</v>
@@ -5015,10 +5121,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>130</v>
@@ -5030,7 +5136,7 @@
         <v>2.9</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
@@ -5054,7 +5160,7 @@
         <v>700</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="1">
@@ -5081,10 +5187,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>244</v>
@@ -5096,7 +5202,7 @@
         <v>3.7</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>20</v>
@@ -5120,7 +5226,7 @@
         <v>850</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="1">
@@ -5147,13 +5253,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>24</v>
@@ -5162,7 +5268,7 @@
         <v>4.7</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>33</v>
@@ -5177,7 +5283,7 @@
         <v>29</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M39" s="3">
         <v>34000</v>
@@ -5186,7 +5292,7 @@
         <v>2400</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="1">
@@ -5213,13 +5319,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>114</v>
@@ -5228,7 +5334,7 @@
         <v>5.9</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>194</v>
@@ -5252,7 +5358,7 @@
         <v>2850</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="1">
@@ -5279,13 +5385,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>241</v>
@@ -5328,7 +5434,7 @@
         <v>30</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W41" s="6">
         <v>43</v>
@@ -5340,16 +5446,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F42" s="12">
         <v>2.4</v>
@@ -5400,7 +5506,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>125</v>
@@ -5450,7 +5556,7 @@
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W43" s="6">
         <v>45</v>
@@ -5463,7 +5569,7 @@
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7"/>
@@ -5481,7 +5587,7 @@
         <v>11003</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="1">
@@ -5507,10 +5613,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>151</v>
@@ -5522,13 +5628,13 @@
         <v>5.4</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>22</v>
@@ -5537,14 +5643,14 @@
         <v>29</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3">
         <v>1900</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="1">
@@ -5562,7 +5668,7 @@
         <v>30</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="W45" s="6">
         <v>48</v>
@@ -5574,13 +5680,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>122</v>
@@ -5589,13 +5695,13 @@
         <v>5.6</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>22</v>
@@ -5604,7 +5710,7 @@
         <v>29</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M46" s="3">
         <v>43000</v>
@@ -5613,7 +5719,7 @@
         <v>2200</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="1">
@@ -5640,10 +5746,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>27</v>
@@ -5670,7 +5776,7 @@
         <v>29</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M47" s="3">
         <v>28000</v>
@@ -5679,7 +5785,7 @@
         <v>1900</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="1">
@@ -5706,7 +5812,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>197</v>
@@ -5715,13 +5821,13 @@
         <v>83</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F48" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>33</v>
@@ -5736,7 +5842,7 @@
         <v>29</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M48" s="3">
         <v>33500</v>
@@ -5745,7 +5851,7 @@
         <v>2400</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="1">
@@ -5772,13 +5878,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>239</v>
@@ -5787,7 +5893,7 @@
         <v>2.4</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>33</v>
@@ -5839,7 +5945,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>243</v>
@@ -5848,13 +5954,13 @@
         <v>117</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F50" s="3">
         <v>1.4</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>20</v>
@@ -5901,13 +6007,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>40</v>
@@ -5916,7 +6022,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>20</v>
@@ -5940,7 +6046,7 @@
         <v>2900</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P51" s="18">
         <v>47000</v>
@@ -5971,13 +6077,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>101</v>
@@ -5986,7 +6092,7 @@
         <v>5.5</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>20</v>
@@ -6001,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -6031,13 +6137,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>37</v>
@@ -6070,7 +6176,7 @@
         <v>1260</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="1">
@@ -6097,10 +6203,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>117</v>
@@ -6112,7 +6218,7 @@
         <v>0.8</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>20</v>
@@ -6163,16 +6269,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F55" s="3">
         <v>5.0999999999999996</v>
@@ -6202,7 +6308,7 @@
         <v>2490</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="1">
@@ -6229,16 +6335,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F56" s="3">
         <v>5</v>
@@ -6295,10 +6401,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>130</v>
@@ -6361,13 +6467,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>209</v>
@@ -6376,7 +6482,7 @@
         <v>3.8</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>20</v>
@@ -6400,7 +6506,7 @@
         <v>1260</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="1">
@@ -6427,13 +6533,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C59" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>420</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>422</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>245</v>
@@ -6442,7 +6548,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>33</v>
@@ -6466,7 +6572,7 @@
         <v>1260</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P59" s="18">
         <v>39000</v>
@@ -6497,7 +6603,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>112</v>
@@ -6512,7 +6618,7 @@
         <v>3.8</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>33</v>
@@ -6563,22 +6669,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F61" s="18">
         <v>5.2</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>20</v>
@@ -6602,7 +6708,7 @@
         <v>2854</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P61" s="18">
         <v>50000</v>
@@ -6633,13 +6739,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>122</v>
@@ -6658,7 +6764,7 @@
         <v>700</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="1">
@@ -6686,7 +6792,7 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="7"/>
@@ -6722,16 +6828,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F64" s="3">
         <v>3.6</v>
@@ -6761,7 +6867,7 @@
         <v>2900</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="1">
@@ -6787,14 +6893,14 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>448</v>
+      <c r="B65" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>446</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>62</v>
@@ -6803,7 +6909,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>33</v>
@@ -6827,12 +6933,14 @@
         <v>2900</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="P65" s="18"/>
+        <v>336</v>
+      </c>
+      <c r="P65" s="18">
+        <v>44000</v>
+      </c>
       <c r="Q65" s="18">
         <f t="shared" ref="Q65:Q67" si="3">P65-M65-N65</f>
-        <v>-36900</v>
+        <v>7100</v>
       </c>
       <c r="R65" s="20">
         <v>45683</v>
@@ -6856,7 +6964,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>197</v>
@@ -6892,7 +7000,7 @@
         <v>2000</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P66" s="18">
         <v>42000</v>
@@ -6923,10 +7031,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>66</v>
@@ -6938,7 +7046,7 @@
         <v>5.8</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>20</v>
@@ -6953,7 +7061,7 @@
         <v>29</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M67" s="18">
         <v>45000</v>
@@ -6993,13 +7101,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>242</v>
@@ -7020,7 +7128,7 @@
         <v>3750</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P68" s="18">
         <v>42000</v>
@@ -7042,69 +7150,73 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" s="21" customFormat="1">
       <c r="A69" s="24">
         <f t="shared" ref="A69:A129" si="5">ROW()-2</f>
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="B69" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="F69" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="H69" s="12" t="s">
+      <c r="G69" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="H69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="L69" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="18">
         <v>33000</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69" s="18">
         <v>1300</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="1">
+      <c r="P69" s="18">
+        <v>42000</v>
+      </c>
+      <c r="Q69" s="18">
         <f t="shared" ref="Q69:Q73" si="6">P69-M69-N69</f>
-        <v>-34300</v>
-      </c>
-      <c r="R69" s="8">
+        <v>7700</v>
+      </c>
+      <c r="R69" s="20">
         <v>45699</v>
       </c>
-      <c r="S69" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T69" s="8"/>
-      <c r="U69" s="3" t="s">
+      <c r="S69" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="20">
+        <v>45707</v>
+      </c>
+      <c r="U69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W69" s="6">
+      <c r="W69" s="21">
         <v>79</v>
       </c>
     </row>
@@ -7114,7 +7226,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>215</v>
@@ -7153,7 +7265,7 @@
         <v>1380</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="1">
@@ -7174,65 +7286,69 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" s="21" customFormat="1">
       <c r="A71" s="24">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="D71" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="18">
         <v>4.3</v>
       </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="3" t="s">
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="18">
         <v>29500</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71" s="18">
         <v>2300</v>
       </c>
-      <c r="O71" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="1">
+      <c r="O71" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="P71" s="18">
+        <v>41000</v>
+      </c>
+      <c r="Q71" s="18">
         <f t="shared" si="6"/>
-        <v>-31800</v>
-      </c>
-      <c r="R71" s="8">
+        <v>9200</v>
+      </c>
+      <c r="R71" s="20">
         <v>45699</v>
       </c>
-      <c r="S71" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T71" s="8"/>
-      <c r="U71" s="3" t="s">
+      <c r="S71" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="20">
+        <v>45707</v>
+      </c>
+      <c r="U71" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W71" s="6">
+      <c r="W71" s="21">
         <v>81</v>
       </c>
     </row>
@@ -7242,13 +7358,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>67</v>
@@ -7257,7 +7373,7 @@
         <v>5.2</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>20</v>
@@ -7281,7 +7397,7 @@
         <v>2250</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P72" s="18">
         <v>50000</v>
@@ -7312,10 +7428,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>151</v>
@@ -7349,7 +7465,7 @@
         <v>1700</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="1">
@@ -7370,69 +7486,73 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" s="21" customFormat="1">
       <c r="A74" s="24">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="B74" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="H74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M74" s="3">
+      <c r="L74" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="M74" s="18">
         <v>39000</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="18">
         <v>2900</v>
       </c>
-      <c r="O74" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="1">
+      <c r="O74" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="P74" s="18">
+        <v>49000</v>
+      </c>
+      <c r="Q74" s="18">
         <f t="shared" ref="Q74" si="7">P74-M74-N74</f>
-        <v>-41900</v>
-      </c>
-      <c r="R74" s="8">
+        <v>7100</v>
+      </c>
+      <c r="R74" s="20">
         <v>45703</v>
       </c>
-      <c r="S74" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T74" s="8"/>
-      <c r="U74" s="3" t="s">
+      <c r="S74" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="20">
+        <v>45707</v>
+      </c>
+      <c r="U74" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W74" s="6">
+      <c r="W74" s="21">
         <v>84</v>
       </c>
     </row>
@@ -7442,13 +7562,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>163</v>
@@ -7457,7 +7577,7 @@
         <v>6.9</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>33</v>
@@ -7472,7 +7592,7 @@
         <v>29</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M75" s="3">
         <v>57000</v>
@@ -7481,7 +7601,7 @@
         <v>3000</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="1">
@@ -7508,13 +7628,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>52</v>
@@ -7550,7 +7670,7 @@
       </c>
       <c r="T76" s="8"/>
       <c r="U76" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7559,16 +7679,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="12"/>
@@ -7576,7 +7696,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>41</v>
@@ -7610,19 +7730,23 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="12"/>
+        <v>261</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>271</v>
+      </c>
       <c r="H78" s="12" t="s">
         <v>149</v>
       </c>
@@ -7630,23 +7754,31 @@
         <v>28</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L78" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M78" s="3">
+        <v>36000</v>
+      </c>
+      <c r="N78" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R78" s="8"/>
+        <v>-38600</v>
+      </c>
+      <c r="R78" s="8">
+        <v>45705</v>
+      </c>
       <c r="S78" s="3" t="s">
         <v>36</v>
       </c>
@@ -7661,7 +7793,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>197</v>
@@ -7698,13 +7830,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>62</v>
@@ -66453,10 +66585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E90EA8-8F58-3C40-AEB7-BD99C8550EC6}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -66471,21 +66603,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="47" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="A1" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="32">
       <c r="A2" s="16" t="s">
@@ -66614,7 +66746,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="24">
-        <f t="shared" ref="A5:A55" si="0">ROW()-2</f>
+        <f t="shared" ref="A5:A54" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -66759,7 +66891,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
@@ -66987,7 +67119,7 @@
         <v>175</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -67164,7 +67296,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>156</v>
@@ -67179,7 +67311,7 @@
         <v>3.2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>20</v>
@@ -67206,7 +67338,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>125</v>
@@ -67221,7 +67353,7 @@
         <v>1.8</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>20</v>
@@ -67248,10 +67380,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>27</v>
@@ -67263,7 +67395,7 @@
         <v>3.4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>20</v>
@@ -67290,16 +67422,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F21" s="3">
         <v>2.7</v>
@@ -67332,7 +67464,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -67347,7 +67479,7 @@
         <v>2.6</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>20</v>
@@ -67374,28 +67506,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F23" s="12">
         <v>16.600000000000001</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>233</v>
@@ -67416,7 +67548,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>148</v>
@@ -67458,10 +67590,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>132</v>
@@ -67500,16 +67632,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F26" s="12">
         <v>4.8</v>
@@ -67542,13 +67674,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>165</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>229</v>
@@ -67557,7 +67689,7 @@
         <v>3.4</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>103</v>
@@ -67584,7 +67716,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>228</v>
@@ -67593,13 +67725,13 @@
         <v>244</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F28" s="12">
         <v>3.8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>20</v>
@@ -67626,10 +67758,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>130</v>
@@ -67641,7 +67773,7 @@
         <v>2.9</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>20</v>
@@ -67668,10 +67800,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>244</v>
@@ -67683,7 +67815,7 @@
         <v>3.7</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>20</v>
@@ -67710,13 +67842,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>243</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>24</v>
@@ -67725,7 +67857,7 @@
         <v>4.7</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>33</v>
@@ -67740,7 +67872,7 @@
         <v>29</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>30</v>
@@ -67752,13 +67884,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>114</v>
@@ -67767,7 +67899,7 @@
         <v>5.9</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>194</v>
@@ -67794,13 +67926,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>241</v>
@@ -67809,7 +67941,7 @@
         <v>4.7</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>20</v>
@@ -67836,16 +67968,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F34" s="12">
         <v>2.4</v>
@@ -67878,7 +68010,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>125</v>
@@ -67911,7 +68043,7 @@
         <v>98</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -67920,10 +68052,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>151</v>
@@ -67935,13 +68067,13 @@
         <v>5.4</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>22</v>
@@ -67950,7 +68082,7 @@
         <v>29</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>30</v>
@@ -67962,13 +68094,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>122</v>
@@ -67977,13 +68109,13 @@
         <v>5.6</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>22</v>
@@ -67992,7 +68124,7 @@
         <v>29</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>30</v>
@@ -68004,10 +68136,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>27</v>
@@ -68034,7 +68166,7 @@
         <v>29</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>30</v>
@@ -68046,7 +68178,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>197</v>
@@ -68055,13 +68187,13 @@
         <v>83</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F39" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>33</v>
@@ -68076,7 +68208,7 @@
         <v>29</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>30</v>
@@ -68088,13 +68220,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>239</v>
@@ -68103,7 +68235,7 @@
         <v>2.4</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>33</v>
@@ -68130,22 +68262,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F41" s="3">
         <v>1.4</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>169</v>
@@ -68172,13 +68304,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>101</v>
@@ -68187,7 +68319,7 @@
         <v>5.5</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>20</v>
@@ -68202,7 +68334,7 @@
         <v>29</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>30</v>
@@ -68214,13 +68346,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>37</v>
@@ -68256,16 +68388,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F44" s="3">
         <v>5.0999999999999996</v>
@@ -68298,22 +68430,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F45" s="3">
         <v>5</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>169</v>
@@ -68328,7 +68460,7 @@
         <v>170</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>30</v>
@@ -68340,22 +68472,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="F46" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>168</v>
@@ -68370,7 +68502,7 @@
         <v>170</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>30</v>
@@ -68382,13 +68514,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>54</v>
@@ -68397,7 +68529,7 @@
         <v>3.8</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>169</v>
@@ -68424,22 +68556,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F48" s="3">
         <v>3.8</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>168</v>
@@ -68454,7 +68586,7 @@
         <v>170</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>30</v>
@@ -68466,22 +68598,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F49" s="3">
         <v>3.6</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>166</v>
@@ -68508,22 +68640,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F50" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>169</v>
@@ -68550,7 +68682,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>205</v>
@@ -68565,7 +68697,7 @@
         <v>4.5</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>168</v>
@@ -68580,7 +68712,7 @@
         <v>170</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>30</v>
@@ -68595,22 +68727,22 @@
         <v>462</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>249</v>
+        <v>464</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F52" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>174</v>
@@ -68622,7 +68754,7 @@
         <v>170</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>30</v>
@@ -68633,26 +68765,26 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>467</v>
+      <c r="B53" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>363</v>
+        <v>491</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="F53" s="3">
-        <v>4.4000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>336</v>
+        <v>494</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>174</v>
@@ -68664,7 +68796,7 @@
         <v>170</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>266</v>
+        <v>515</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>30</v>
@@ -68676,81 +68808,39 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>282</v>
+        <v>521</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>319</v>
+        <v>522</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="F54" s="3">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>280</v>
+        <v>519</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>334</v>
+        <v>518</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="24">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F55" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="M55" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -68759,7 +68849,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:L55">
+  <conditionalFormatting sqref="A3:L54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -68770,10 +68860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A280AE-6CDB-F940-8F0F-7F575BF9ED92}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -69052,10 +69142,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -69069,7 +69159,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>173</v>
@@ -69086,10 +69176,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -69103,10 +69193,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -69120,13 +69210,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="6"/>
@@ -69137,7 +69227,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>48</v>
@@ -69154,10 +69244,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
@@ -69171,10 +69261,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -69188,10 +69278,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -69205,7 +69295,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>197</v>
@@ -69222,7 +69312,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>165</v>
@@ -69239,10 +69329,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -69256,10 +69346,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -69273,10 +69363,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
@@ -69290,10 +69380,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -69307,10 +69397,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
@@ -69325,7 +69415,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
@@ -69339,10 +69429,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
@@ -69356,10 +69446,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
@@ -69373,7 +69463,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>197</v>
@@ -69390,7 +69480,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>125</v>
@@ -69407,7 +69497,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>206</v>
@@ -69424,10 +69514,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D38" s="6">
         <v>2</v>
@@ -69441,7 +69531,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>55</v>
@@ -69458,10 +69548,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D40" s="6">
         <v>2</v>
@@ -69475,7 +69565,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>197</v>
@@ -69492,7 +69582,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>197</v>
@@ -69509,10 +69599,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
@@ -69526,7 +69616,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>187</v>
@@ -69543,10 +69633,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
@@ -69558,7 +69648,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>197</v>
@@ -69573,10 +69663,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
@@ -69588,7 +69678,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>112</v>
@@ -69603,7 +69693,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>112</v>
@@ -69618,10 +69708,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
@@ -69633,10 +69723,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
@@ -69648,10 +69738,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
@@ -69663,55 +69753,290 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6">
-        <f>ROW()</f>
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="6">
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA17A2-28EC-9E48-8F33-B176FE7D609D}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="22.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6">
-        <f>ROW()</f>
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6">
-        <f>ROW()</f>
-        <v>56</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>282</v>
+      <c r="D1" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="48">
+        <v>45693</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" s="47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="48">
+        <v>45696</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" s="47">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="48">
+        <v>45696</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="48">
+        <v>45697</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="48">
+        <v>45697</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="E6" s="47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="48">
+        <v>45697</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="E7" s="47">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="48">
+        <v>45697</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="E8" s="47">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="48">
+        <v>45698</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="47">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="48">
+        <v>45698</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="48">
+        <v>45699</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" s="47">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="48">
+        <v>45699</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="E12" s="47">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="48">
+        <v>45702</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="48">
+        <v>45705</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="E14" s="47">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="49">
+        <v>45706</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E15" s="6">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/25-26总表.xlsx
+++ b/25-26总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26水岸/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A2DA58-7D34-8947-ACA4-D50F5B4A491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23845F10-7AD1-2646-B3DF-2E79090D25DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="640" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="临时表" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">车库库存!$S$1:$S$9862</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">车库库存!$S$1:$S$9860</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="582">
   <si>
     <t>序列号</t>
   </si>
@@ -1804,12 +1804,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>捷途大圣</t>
-  </si>
-  <si>
-    <t>甘M227D6</t>
-  </si>
-  <si>
     <t>甘M227D6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1819,9 +1813,6 @@
   <si>
     <t>贵EVD988</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘M庆阳</t>
   </si>
   <si>
     <t>甘M庆阳</t>
@@ -1865,9 +1856,6 @@
   </si>
   <si>
     <t>9800km</t>
-  </si>
-  <si>
-    <t>9800km</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1889,18 +1877,6 @@
   <si>
     <t>47000km</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/1</t>
-  </si>
-  <si>
-    <t>闽C995ZH</t>
-  </si>
-  <si>
-    <t>欧尚X5</t>
-  </si>
-  <si>
-    <t>闽C泉州</t>
   </si>
   <si>
     <t>2015/4</t>
@@ -2060,10 +2036,6 @@
     <t>粤L惠州</t>
   </si>
   <si>
-    <t>内部价格表2025-2-17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>调表</t>
   </si>
   <si>
@@ -2156,6 +2128,125 @@
   </si>
   <si>
     <t>捷途x70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂B黄石</t>
+  </si>
+  <si>
+    <t>苏N695RW</t>
+  </si>
+  <si>
+    <t>苏N695RW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京X7</t>
+  </si>
+  <si>
+    <t>北京X7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏N宿迁</t>
+  </si>
+  <si>
+    <t>云A50L54</t>
+  </si>
+  <si>
+    <t>云A50L54</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡蓝色</t>
+  </si>
+  <si>
+    <t>淡蓝色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38000km</t>
+  </si>
+  <si>
+    <t>17w km</t>
+  </si>
+  <si>
+    <t>17w km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000km</t>
+  </si>
+  <si>
+    <t>22000km</t>
+  </si>
+  <si>
+    <t>22000km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银灰色</t>
+  </si>
+  <si>
+    <t>银灰色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8</t>
+  </si>
+  <si>
+    <t>物流1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流2800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流2500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘C3FY78</t>
+  </si>
+  <si>
+    <t>丰田普拉多</t>
+  </si>
+  <si>
+    <t>湘C湘潭</t>
+  </si>
+  <si>
+    <t>2013/11</t>
+  </si>
+  <si>
+    <t>2.7L</t>
+  </si>
+  <si>
+    <t>2025/11</t>
+  </si>
+  <si>
+    <t>鄂B7B127</t>
+  </si>
+  <si>
+    <t>捷途X70 Plus</t>
+  </si>
+  <si>
+    <t>鲁MZQ261</t>
+  </si>
+  <si>
+    <t>北汽魔方</t>
+  </si>
+  <si>
+    <t>鲁M滨州</t>
+  </si>
+  <si>
+    <t>2024/1</t>
+  </si>
+  <si>
+    <t>2026/1</t>
+  </si>
+  <si>
+    <t>内部价格表2025-2-19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2355,7 +2446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2491,12 +2582,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2506,7 +2591,16 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2831,10 +2925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
-  <dimension ref="A1:W9862"/>
+  <dimension ref="A1:W9860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="N51" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2852,29 +2946,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
       <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:23" ht="32">
@@ -5954,7 +6048,7 @@
         <v>117</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F50" s="3">
         <v>1.4</v>
@@ -6708,7 +6802,7 @@
         <v>2854</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P61" s="18">
         <v>50000</v>
@@ -6822,69 +6916,69 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" s="21" customFormat="1">
       <c r="A64" s="24">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="18">
         <v>3.6</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="G64" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="18">
         <v>24000</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="18">
         <v>2900</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="O64" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="1">
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18">
         <f t="shared" ref="Q64" si="2">P64-M64-N64</f>
         <v>-26900</v>
       </c>
-      <c r="R64" s="8">
+      <c r="R64" s="20">
         <v>45682</v>
       </c>
-      <c r="S64" s="3" t="s">
+      <c r="S64" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="T64" s="8"/>
-      <c r="U64" s="3" t="s">
+      <c r="T64" s="20"/>
+      <c r="U64" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W64" s="6">
+      <c r="W64" s="21">
         <v>75</v>
       </c>
     </row>
@@ -7000,7 +7094,7 @@
         <v>2000</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P66" s="18">
         <v>42000</v>
@@ -7046,7 +7140,7 @@
         <v>5.8</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>20</v>
@@ -7128,7 +7222,7 @@
         <v>3750</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="P68" s="18">
         <v>42000</v>
@@ -7152,17 +7246,17 @@
     </row>
     <row r="69" spans="1:23" s="21" customFormat="1">
       <c r="A69" s="24">
-        <f t="shared" ref="A69:A129" si="5">ROW()-2</f>
+        <f t="shared" ref="A69:A127" si="5">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>270</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>368</v>
@@ -7171,7 +7265,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>20</v>
@@ -7226,7 +7320,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>215</v>
@@ -7265,7 +7359,7 @@
         <v>1380</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="1">
@@ -7292,7 +7386,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>197</v>
@@ -7327,7 +7421,7 @@
         <v>2300</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P71" s="18">
         <v>41000</v>
@@ -7358,13 +7452,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>251</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>67</v>
@@ -7373,7 +7467,7 @@
         <v>5.2</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>20</v>
@@ -7397,7 +7491,7 @@
         <v>2250</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P72" s="18">
         <v>50000</v>
@@ -7428,7 +7522,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>333</v>
@@ -7465,7 +7559,7 @@
         <v>1700</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="1">
@@ -7492,9 +7586,9 @@
         <v>72</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="C74" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="C74" s="26" t="s">
         <v>280</v>
       </c>
       <c r="D74" s="26" t="s">
@@ -7562,13 +7656,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>163</v>
@@ -7577,7 +7671,7 @@
         <v>6.9</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>33</v>
@@ -7592,7 +7686,7 @@
         <v>29</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M75" s="3">
         <v>57000</v>
@@ -7601,7 +7695,7 @@
         <v>3000</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="1">
@@ -7628,13 +7722,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>52</v>
@@ -7656,13 +7750,15 @@
       <c r="L76" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="3">
+        <v>41000</v>
+      </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="1">
         <f t="shared" ref="Q76:Q80" si="9">P76-M76-N76</f>
-        <v>0</v>
+        <v>-41000</v>
       </c>
       <c r="R76" s="8"/>
       <c r="S76" s="3" t="s">
@@ -7670,7 +7766,7 @@
       </c>
       <c r="T76" s="8"/>
       <c r="U76" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7679,24 +7775,28 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="12"/>
+        <v>501</v>
+      </c>
+      <c r="F77" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>558</v>
+      </c>
       <c r="H77" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>41</v>
@@ -7707,21 +7807,32 @@
       <c r="L77" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
+      <c r="M77" s="3">
+        <v>68000</v>
+      </c>
+      <c r="N77" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="8"/>
+        <v>-70400</v>
+      </c>
+      <c r="R77" s="8">
+        <v>45707</v>
+      </c>
       <c r="S77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T77" s="8"/>
       <c r="U77" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="W77" s="6">
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7730,10 +7841,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>372</v>
@@ -7769,7 +7880,7 @@
         <v>2600</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="1">
@@ -7786,6 +7897,9 @@
       <c r="U78" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="W78" s="6">
+        <v>87</v>
+      </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="24">
@@ -7793,35 +7907,64 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
+      <c r="D79" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M79" s="3">
+        <v>25000</v>
+      </c>
+      <c r="N79" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="8"/>
+        <v>-27000</v>
+      </c>
+      <c r="R79" s="8">
+        <v>45707</v>
+      </c>
       <c r="S79" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T79" s="8"/>
       <c r="U79" s="3" t="s">
-        <v>30</v>
+        <v>123</v>
+      </c>
+      <c r="W79" s="6">
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7830,21 +7973,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="12"/>
+      <c r="F80" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>186</v>
+      </c>
       <c r="H80" s="12" t="s">
-        <v>20</v>
+        <v>555</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>28</v>
@@ -7858,15 +8005,23 @@
       <c r="L80" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
+      <c r="M80" s="3">
+        <v>32000</v>
+      </c>
+      <c r="N80" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>567</v>
+      </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="8"/>
+        <v>-34500</v>
+      </c>
+      <c r="R80" s="8">
+        <v>45707</v>
+      </c>
       <c r="S80" s="3" t="s">
         <v>36</v>
       </c>
@@ -7874,98 +8029,221 @@
       <c r="U80" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="W80" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="24">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M81" s="3">
+        <v>29000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="1">
+        <f t="shared" ref="Q81:Q82" si="10">P81-M81-N81</f>
+        <v>-31800</v>
+      </c>
+      <c r="R81" s="8">
+        <v>45707</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" s="8"/>
+      <c r="U81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W81" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="24">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M82" s="3">
+        <v>46000</v>
+      </c>
+      <c r="N82" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="1">
+        <f t="shared" si="10"/>
+        <v>-47200</v>
+      </c>
+      <c r="R82" s="8">
+        <v>45707</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82" s="8"/>
+      <c r="U82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W82" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="24">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:23">
       <c r="A84" s="24">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:23">
       <c r="A85" s="24">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:23">
       <c r="A86" s="24">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:23">
       <c r="A87" s="24">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:23">
       <c r="A88" s="24">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:23">
       <c r="A89" s="24">
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:23">
       <c r="A90" s="24">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:23">
       <c r="A91" s="24">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:23">
       <c r="A92" s="24">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:23">
       <c r="A93" s="24">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:23">
       <c r="A94" s="24">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:23">
       <c r="A95" s="24">
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:23">
       <c r="A96" s="24">
         <f t="shared" si="5"/>
         <v>94</v>
@@ -8159,2630 +8437,2630 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A128:A191" si="11">ROW()-2</f>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="24">
-        <f t="shared" ref="A130:A193" si="10">ROW()-2</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A192:A255" si="12">ROW()-2</f>
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="24">
-        <f t="shared" ref="A194:A257" si="11">ROW()-2</f>
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A256:A319" si="13">ROW()-2</f>
         <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="24">
-        <f t="shared" ref="A258:A321" si="12">ROW()-2</f>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A320:A383" si="14">ROW()-2</f>
         <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="24">
-        <f t="shared" ref="A322:A385" si="13">ROW()-2</f>
+        <f t="shared" si="14"/>
         <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A384:A447" si="15">ROW()-2</f>
         <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="24">
-        <f t="shared" ref="A386:A449" si="14">ROW()-2</f>
+        <f t="shared" si="15"/>
         <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>422</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>431</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>433</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>440</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>441</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>443</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A448:A511" si="16">ROW()-2</f>
         <v>446</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>447</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="24">
-        <f t="shared" ref="A450:A513" si="15">ROW()-2</f>
+        <f t="shared" si="16"/>
         <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>449</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>453</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>454</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>455</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>457</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>458</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>459</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>461</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>462</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>463</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>464</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>465</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>466</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>467</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>468</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>470</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>471</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>472</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>473</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>474</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>476</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>477</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>478</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>480</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>481</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>482</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>484</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>485</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>486</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>487</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>490</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>491</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>492</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>493</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>494</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>495</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>496</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>497</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>498</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>502</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>503</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>504</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>506</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>507</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A512:A563" si="17">ROW()-2</f>
         <v>510</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>511</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="24">
-        <f t="shared" ref="A514:A565" si="16">ROW()-2</f>
+        <f t="shared" si="17"/>
         <v>512</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>513</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>515</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>516</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>517</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>518</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>520</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>521</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>522</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>523</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>524</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>525</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>526</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>527</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>528</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>529</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>530</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>531</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>532</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>533</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>534</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>538</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>540</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>541</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>544</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>546</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>548</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>550</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>551</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>552</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>554</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>555</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>556</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>557</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>558</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>559</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>560</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="24">
-        <f t="shared" si="16"/>
-        <v>562</v>
+      <c r="A564" s="6">
+        <f>ROW()</f>
+        <v>564</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="24">
-        <f t="shared" si="16"/>
-        <v>563</v>
+      <c r="A565" s="6">
+        <f>ROW()</f>
+        <v>565</v>
       </c>
     </row>
     <row r="566" spans="1:1">
@@ -66555,26 +66833,14 @@
         <v>9860</v>
       </c>
     </row>
-    <row r="9861" spans="1:1">
-      <c r="A9861" s="6">
-        <f>ROW()</f>
-        <v>9861</v>
-      </c>
-    </row>
-    <row r="9862" spans="1:1">
-      <c r="A9862" s="6">
-        <f>ROW()</f>
-        <v>9862</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="S1:S9862" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}"/>
+  <autoFilter ref="S1:S9860" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S80" xr:uid="{3707277B-7B63-CE41-BE27-63742A3F8D35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S82" xr:uid="{3707277B-7B63-CE41-BE27-63742A3F8D35}">
       <formula1>"已售,在库"</formula1>
     </dataValidation>
   </dataValidations>
@@ -66585,10 +66851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E90EA8-8F58-3C40-AEB7-BD99C8550EC6}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -66603,21 +66869,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="32">
       <c r="A2" s="16" t="s">
@@ -66746,7 +67012,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="24">
-        <f t="shared" ref="A5:A54" si="0">ROW()-2</f>
+        <f t="shared" ref="A5:A57" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -68262,7 +68528,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>335</v>
@@ -68271,7 +68537,7 @@
         <v>219</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F41" s="3">
         <v>1.4</v>
@@ -68598,37 +68864,37 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>478</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>479</v>
+        <v>204</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>476</v>
+        <v>226</v>
       </c>
       <c r="F49" s="3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>285</v>
+        <v>464</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>30</v>
@@ -68640,28 +68906,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>457</v>
+        <v>361</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="F50" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>469</v>
+        <v>334</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>164</v>
@@ -68670,7 +68936,7 @@
         <v>170</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>30</v>
@@ -68681,38 +68947,38 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>455</v>
+      <c r="B51" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>204</v>
+        <v>483</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>226</v>
+        <v>485</v>
       </c>
       <c r="F51" s="3">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>168</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>30</v>
@@ -68723,23 +68989,23 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>462</v>
+      <c r="B52" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>361</v>
+        <v>513</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>514</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>465</v>
+        <v>325</v>
       </c>
       <c r="F52" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>334</v>
+        <v>511</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>166</v>
@@ -68748,13 +69014,13 @@
         <v>174</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>264</v>
+        <v>510</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>30</v>
@@ -68766,37 +69032,37 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="F53" s="3">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>174</v>
+        <v>572</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>30</v>
@@ -68808,25 +69074,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>325</v>
+        <v>564</v>
       </c>
       <c r="F54" s="3">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>174</v>
@@ -68838,9 +69104,135 @@
         <v>170</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>518</v>
+        <v>203</v>
       </c>
       <c r="M54" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="24">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="24">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="24">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -68849,7 +69241,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:L54">
+  <conditionalFormatting sqref="A3:L57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -68863,7 +69255,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -69142,10 +69534,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -69216,7 +69608,7 @@
         <v>125</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="6"/>
@@ -69415,7 +69807,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
@@ -69648,7 +70040,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>197</v>
@@ -69707,7 +70099,7 @@
         <f>ROW()</f>
         <v>50</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="50" t="s">
         <v>445</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -69738,7 +70130,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>215</v>
@@ -69753,7 +70145,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>333</v>
@@ -69787,253 +70179,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="46">
+        <v>45693</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="46">
+        <v>45696</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="E3" s="45">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="46">
+        <v>45696</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="D4" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" s="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="46">
+        <v>45697</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="D5" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="46">
+        <v>45697</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="48">
-        <v>45693</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>524</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="E2" s="47">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="48">
-        <v>45696</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="E6" s="45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="46">
+        <v>45697</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E7" s="45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="46">
+        <v>45697</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="E3" s="47">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="48">
-        <v>45696</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="E8" s="45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="46">
+        <v>45698</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" s="47">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="48">
-        <v>45697</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="E9" s="45">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="46">
+        <v>45698</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="E5" s="47">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="48">
-        <v>45697</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="46">
+        <v>45699</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="C11" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="E6" s="47">
+      <c r="D11" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="45">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="46">
+        <v>45699</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E12" s="45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="46">
+        <v>45702</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="E13" s="45">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="48">
-        <v>45697</v>
-      </c>
-      <c r="B7" s="47" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="46">
+        <v>45705</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="E7" s="47">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="48">
-        <v>45697</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="E8" s="47">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="48">
-        <v>45698</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>524</v>
-      </c>
-      <c r="C9" s="47" t="s">
+      <c r="D14" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="E14" s="45">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="47">
+        <v>45706</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="E9" s="47">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="48">
-        <v>45698</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>546</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="48">
-        <v>45699</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="E11" s="47">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="48">
-        <v>45699</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>552</v>
-      </c>
-      <c r="E12" s="47">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="48">
-        <v>45702</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>538</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="E13" s="47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="48">
-        <v>45705</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>524</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="E14" s="47">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="49">
-        <v>45706</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>554</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E15" s="6">
         <v>500</v>

--- a/25-26总表.xlsx
+++ b/25-26总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hetianye/Documents/25-26水岸/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23845F10-7AD1-2646-B3DF-2E79090D25DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB92D2B-A2EA-E14E-95C3-FDDDF4710229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="640" windowWidth="27080" windowHeight="16440" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
+    <workbookView xWindow="3080" yWindow="1540" windowWidth="25720" windowHeight="14700" xr2:uid="{F1DB7E49-3C96-F14B-999D-7886377BB298}"/>
   </bookViews>
   <sheets>
     <sheet name="车库库存" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">车库库存!$S$1:$S$9860</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="661">
   <si>
     <t>序列号</t>
   </si>
@@ -947,9 +948,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025/1</t>
-  </si>
-  <si>
     <t>58000km</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1441,10 +1439,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物流1900，GPS300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>川VM8809</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1915,10 +1909,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物流2400,加油454</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>捷途旅行者</t>
   </si>
   <si>
@@ -2152,9 +2142,6 @@
   </si>
   <si>
     <t>云A50L54</t>
-  </si>
-  <si>
-    <t>云A50L54</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2173,9 +2160,6 @@
   <si>
     <t>17w km</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000km</t>
   </si>
   <si>
     <t>22000km</t>
@@ -2246,7 +2230,298 @@
     <t>2026/1</t>
   </si>
   <si>
-    <t>内部价格表2025-2-19</t>
+    <t>物流2400,加油454,审车100，维修200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流2900，加油421，查违章40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流1900，GPS300，查档40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配钥匙+屏蔽钥匙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安欧尚x5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安启源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽钥匙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/2</t>
+  </si>
+  <si>
+    <t>2025/3</t>
+  </si>
+  <si>
+    <t>2025/5</t>
+  </si>
+  <si>
+    <t>冀J3T1J9</t>
+  </si>
+  <si>
+    <t>冀J3T1J9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安X5 Plus</t>
+  </si>
+  <si>
+    <t>长安X5 Plus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂B1V806</t>
+  </si>
+  <si>
+    <t>鄂B1V806</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔腾T55</t>
+  </si>
+  <si>
+    <t>奔腾T55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁HY35S2</t>
+  </si>
+  <si>
+    <t>鲁HY35S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀J沧州</t>
+  </si>
+  <si>
+    <t>冀J沧州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀H5731Z</t>
+  </si>
+  <si>
+    <t>冀H5731Z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冀H承德</t>
+  </si>
+  <si>
+    <t>冀H承德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁H济宁</t>
+  </si>
+  <si>
+    <t>鲁H济宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕JX9657</t>
+  </si>
+  <si>
+    <t>陕JX9657</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕J延安</t>
+  </si>
+  <si>
+    <t>陕J延安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/8</t>
+  </si>
+  <si>
+    <t>2023/3</t>
+  </si>
+  <si>
+    <t>2023/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/5</t>
+  </si>
+  <si>
+    <t>2024/10</t>
+  </si>
+  <si>
+    <t>2017/1</t>
+  </si>
+  <si>
+    <t>2017/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态正常，资料未到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新Q8553G</t>
+  </si>
+  <si>
+    <t>新Q8553G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利星越L</t>
+  </si>
+  <si>
+    <t>吉利星越L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新Q喀什</t>
+  </si>
+  <si>
+    <t>2023/2</t>
+  </si>
+  <si>
+    <t>2023/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/10</t>
+  </si>
+  <si>
+    <t>2025/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤E2000H</t>
+  </si>
+  <si>
+    <t>粤E2000H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞虎8 Pro</t>
+  </si>
+  <si>
+    <t>瑞虎8 Pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤E佛山</t>
+  </si>
+  <si>
+    <t>粤E佛山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026/8</t>
+  </si>
+  <si>
+    <t>物流2200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查档200，物流2200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5T插混</t>
+  </si>
+  <si>
+    <t>6600km</t>
+  </si>
+  <si>
+    <t>6600km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27000km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13000km</t>
+  </si>
+  <si>
+    <t>85000km</t>
+  </si>
+  <si>
+    <t>85000km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800km</t>
+  </si>
+  <si>
+    <t>12000km</t>
+  </si>
+  <si>
+    <t>12000km</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈弗H5</t>
+  </si>
+  <si>
+    <t>哈弗H5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫B65J57</t>
+  </si>
+  <si>
+    <t>豫B65J57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫B开封</t>
+  </si>
+  <si>
+    <t>豫B开封</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/4</t>
+  </si>
+  <si>
+    <t>2025/7</t>
+  </si>
+  <si>
+    <t>新QF61124</t>
+  </si>
+  <si>
+    <t>长安欧尚Z6</t>
+  </si>
+  <si>
+    <t>2023/7</t>
+  </si>
+  <si>
+    <t>2.0T柴油</t>
+  </si>
+  <si>
+    <t>2.0T柴油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动四驱</t>
+  </si>
+  <si>
+    <t>2026/5</t>
+  </si>
+  <si>
+    <t>内部价格表2025-2-21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2446,7 +2721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2591,16 +2866,22 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2927,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DED22B3-A9BB-5D4E-9DFF-818573687964}">
   <dimension ref="A1:W9860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N51" workbookViewId="0">
-      <selection activeCell="P85" sqref="P85"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2936,7 +3217,9 @@
     <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="2" max="2" width="16.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="14" width="10.83203125" style="6"/>
+    <col min="4" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="14.83203125" style="6" customWidth="1"/>
+    <col min="10" max="14" width="10.83203125" style="6"/>
     <col min="15" max="15" width="37.83203125" style="6" customWidth="1"/>
     <col min="16" max="19" width="10.83203125" style="6"/>
     <col min="20" max="20" width="12.6640625" style="6" customWidth="1"/>
@@ -2946,29 +3229,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
+      <c r="A1" s="49" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
       <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:23" ht="32">
@@ -3018,10 +3301,10 @@
         <v>14</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="R2" s="17" t="s">
         <v>15</v>
@@ -3037,7 +3320,7 @@
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3150,7 +3433,7 @@
         <v>60</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
@@ -3217,7 +3500,7 @@
         <v>60</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
@@ -3284,7 +3567,7 @@
         <v>130</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
@@ -3351,7 +3634,7 @@
         <v>1330</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
@@ -3416,7 +3699,7 @@
         <v>940</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
@@ -3503,7 +3786,7 @@
         <v>30</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -3632,7 +3915,7 @@
         <v>30</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W11" s="10"/>
     </row>
@@ -3748,7 +4031,7 @@
         <v>1260</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="1">
@@ -3815,7 +4098,7 @@
         <v>5580</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="1">
@@ -3894,7 +4177,7 @@
         <v>30</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W15" s="37">
         <v>15</v>
@@ -3945,7 +4228,7 @@
         <v>1660</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="1">
@@ -3960,7 +4243,7 @@
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W16" s="6">
         <v>16</v>
@@ -4011,7 +4294,7 @@
         <v>1020</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="1">
@@ -4237,7 +4520,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>156</v>
@@ -4252,7 +4535,7 @@
         <v>3.2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>20</v>
@@ -4276,7 +4559,7 @@
         <v>1300</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="1">
@@ -4303,7 +4586,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>125</v>
@@ -4318,7 +4601,7 @@
         <v>1.8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>20</v>
@@ -4369,10 +4652,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
@@ -4384,7 +4667,7 @@
         <v>3.4</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>20</v>
@@ -4408,7 +4691,7 @@
         <v>350</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="1">
@@ -4435,16 +4718,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F24" s="3">
         <v>2.7</v>
@@ -4501,22 +4784,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F25" s="18">
         <v>3.4</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>169</v>
@@ -4540,7 +4823,7 @@
         <v>3610</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P25" s="18">
         <v>35000</v>
@@ -4571,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -4586,7 +4869,7 @@
         <v>2.6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>20</v>
@@ -4610,7 +4893,7 @@
         <v>1880</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="1">
@@ -4631,69 +4914,73 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" s="21" customFormat="1">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="26">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="12">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="18">
         <v>93000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="18">
         <v>22280</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="1">
+      <c r="O27" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="P27" s="18">
+        <v>130000</v>
+      </c>
+      <c r="Q27" s="18">
         <f t="shared" si="1"/>
-        <v>-115280</v>
-      </c>
-      <c r="R27" s="8">
+        <v>14720</v>
+      </c>
+      <c r="R27" s="20">
         <v>45565</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="3" t="s">
+      <c r="S27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="20">
+        <v>45708</v>
+      </c>
+      <c r="U27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="21">
         <v>29</v>
       </c>
     </row>
@@ -4703,7 +4990,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>148</v>
@@ -4718,7 +5005,7 @@
         <v>5.2</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>149</v>
@@ -4742,7 +5029,7 @@
         <v>830</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="1">
@@ -4769,10 +5056,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>132</v>
@@ -4808,7 +5095,7 @@
         <v>1420</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="1">
@@ -4837,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7"/>
@@ -4855,7 +5142,7 @@
         <v>26685</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="1">
@@ -4882,7 +5169,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
@@ -4900,7 +5187,7 @@
         <v>24185</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="1">
@@ -4927,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
@@ -4945,7 +5232,7 @@
         <v>26985</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="1">
@@ -4963,7 +5250,7 @@
         <v>30</v>
       </c>
       <c r="V32" s="42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="372">
@@ -4975,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
@@ -4993,7 +5280,7 @@
         <v>26985</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="1">
@@ -5011,7 +5298,7 @@
         <v>30</v>
       </c>
       <c r="V33" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -5020,16 +5307,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F34" s="12">
         <v>4.8</v>
@@ -5071,7 +5358,7 @@
         <v>30</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W34" s="6">
         <v>34</v>
@@ -5083,13 +5370,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>229</v>
@@ -5098,7 +5385,7 @@
         <v>3.4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>103</v>
@@ -5122,7 +5409,7 @@
         <v>1950</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="1">
@@ -5149,22 +5436,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F36" s="12">
         <v>3.8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>20</v>
@@ -5215,22 +5502,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="12">
         <v>2.9</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
@@ -5254,7 +5541,7 @@
         <v>700</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="1">
@@ -5281,13 +5568,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>162</v>
@@ -5296,7 +5583,7 @@
         <v>3.7</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>20</v>
@@ -5320,7 +5607,7 @@
         <v>850</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="1">
@@ -5347,13 +5634,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>24</v>
@@ -5362,7 +5649,7 @@
         <v>4.7</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>33</v>
@@ -5377,7 +5664,7 @@
         <v>29</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M39" s="3">
         <v>34000</v>
@@ -5386,7 +5673,7 @@
         <v>2400</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="1">
@@ -5413,13 +5700,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>348</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>114</v>
@@ -5428,7 +5715,7 @@
         <v>5.9</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>194</v>
@@ -5452,7 +5739,7 @@
         <v>2850</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="1">
@@ -5479,16 +5766,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F41" s="12">
         <v>4.7</v>
@@ -5528,7 +5815,7 @@
         <v>30</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W41" s="6">
         <v>43</v>
@@ -5540,16 +5827,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F42" s="12">
         <v>2.4</v>
@@ -5600,7 +5887,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>125</v>
@@ -5650,7 +5937,7 @@
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="W43" s="6">
         <v>45</v>
@@ -5663,7 +5950,7 @@
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7"/>
@@ -5681,7 +5968,7 @@
         <v>11003</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="1">
@@ -5707,10 +5994,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>151</v>
@@ -5722,13 +6009,13 @@
         <v>5.4</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>22</v>
@@ -5737,14 +6024,14 @@
         <v>29</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3">
         <v>1900</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="1">
@@ -5762,75 +6049,79 @@
         <v>30</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W45" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" s="21" customFormat="1">
       <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="26">
+        <v>5.6</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="L46" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="M46" s="18">
         <v>43000</v>
       </c>
-      <c r="N46" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="1">
+      <c r="N46" s="18">
+        <v>2240</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="P46" s="18">
+        <v>53000</v>
+      </c>
+      <c r="Q46" s="18">
         <f t="shared" si="1"/>
-        <v>-45200</v>
-      </c>
-      <c r="R46" s="8">
+        <v>7760</v>
+      </c>
+      <c r="R46" s="20">
         <v>45661</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T46" s="8"/>
-      <c r="U46" s="3" t="s">
+      <c r="S46" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="20">
+        <v>45708</v>
+      </c>
+      <c r="U46" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W46" s="6">
+      <c r="W46" s="21">
         <v>49</v>
       </c>
     </row>
@@ -5840,10 +6131,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>27</v>
@@ -5870,7 +6161,7 @@
         <v>29</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M47" s="3">
         <v>28000</v>
@@ -5879,7 +6170,7 @@
         <v>1900</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="1">
@@ -5906,7 +6197,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>197</v>
@@ -5915,13 +6206,13 @@
         <v>83</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F48" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>33</v>
@@ -5936,7 +6227,7 @@
         <v>29</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M48" s="3">
         <v>33500</v>
@@ -5945,7 +6236,7 @@
         <v>2400</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="1">
@@ -5972,22 +6263,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F49" s="31">
         <v>2.4</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>33</v>
@@ -6039,22 +6330,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F50" s="3">
         <v>1.4</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>20</v>
@@ -6101,13 +6392,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>40</v>
@@ -6116,7 +6407,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>20</v>
@@ -6140,7 +6431,7 @@
         <v>2900</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P51" s="18">
         <v>47000</v>
@@ -6171,13 +6462,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>101</v>
@@ -6186,7 +6477,7 @@
         <v>5.5</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>20</v>
@@ -6201,7 +6492,7 @@
         <v>29</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -6231,13 +6522,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>37</v>
@@ -6270,7 +6561,7 @@
         <v>1260</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="1">
@@ -6297,22 +6588,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>117</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="18">
         <v>0.8</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>20</v>
@@ -6363,16 +6654,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="3">
         <v>5.0999999999999996</v>
@@ -6402,7 +6693,7 @@
         <v>2490</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="1">
@@ -6429,16 +6720,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F56" s="3">
         <v>5</v>
@@ -6495,10 +6786,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>130</v>
@@ -6561,13 +6852,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>209</v>
@@ -6576,7 +6867,7 @@
         <v>3.8</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>20</v>
@@ -6600,7 +6891,7 @@
         <v>1260</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="1">
@@ -6627,22 +6918,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C59" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>420</v>
-      </c>
       <c r="E59" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F59" s="18">
         <v>4.0999999999999996</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>33</v>
@@ -6666,7 +6957,7 @@
         <v>1260</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P59" s="18">
         <v>39000</v>
@@ -6697,7 +6988,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>112</v>
@@ -6712,7 +7003,7 @@
         <v>3.8</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>33</v>
@@ -6763,22 +7054,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F61" s="18">
         <v>5.2</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H61" s="26" t="s">
         <v>20</v>
@@ -6799,17 +7090,17 @@
         <v>38000</v>
       </c>
       <c r="N61" s="18">
-        <v>2854</v>
+        <v>3154</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="P61" s="18">
         <v>50000</v>
       </c>
       <c r="Q61" s="18">
         <f t="shared" si="1"/>
-        <v>9146</v>
+        <v>8846</v>
       </c>
       <c r="R61" s="20">
         <v>45682</v>
@@ -6833,13 +7124,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>122</v>
@@ -6858,7 +7149,7 @@
         <v>700</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="1">
@@ -6886,7 +7177,7 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="7"/>
@@ -6921,17 +7212,17 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="50" t="s">
-        <v>445</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>444</v>
+      <c r="B64" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>442</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F64" s="18">
         <v>3.6</v>
@@ -6958,23 +7249,27 @@
         <v>24000</v>
       </c>
       <c r="N64" s="18">
-        <v>2900</v>
+        <v>3361</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="P64" s="18"/>
+        <v>577</v>
+      </c>
+      <c r="P64" s="18">
+        <v>38000</v>
+      </c>
       <c r="Q64" s="18">
-        <f t="shared" ref="Q64" si="2">P64-M64-N64</f>
-        <v>-26900</v>
+        <f t="shared" ref="Q64:Q82" si="2">P64-M64-N64</f>
+        <v>10639</v>
       </c>
       <c r="R64" s="20">
         <v>45682</v>
       </c>
       <c r="S64" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T64" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="T64" s="20">
+        <v>45708</v>
+      </c>
       <c r="U64" s="18" t="s">
         <v>30</v>
       </c>
@@ -6988,13 +7283,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>62</v>
@@ -7003,7 +7298,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>33</v>
@@ -7027,13 +7322,13 @@
         <v>2900</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P65" s="18">
         <v>44000</v>
       </c>
       <c r="Q65" s="18">
-        <f t="shared" ref="Q65:Q67" si="3">P65-M65-N65</f>
+        <f t="shared" si="2"/>
         <v>7100</v>
       </c>
       <c r="R65" s="20">
@@ -7058,7 +7353,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>197</v>
@@ -7094,13 +7389,13 @@
         <v>2000</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P66" s="18">
         <v>42000</v>
       </c>
       <c r="Q66" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9500</v>
       </c>
       <c r="R66" s="20">
@@ -7125,10 +7420,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>66</v>
@@ -7140,7 +7435,7 @@
         <v>5.8</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>20</v>
@@ -7155,7 +7450,7 @@
         <v>29</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M67" s="18">
         <v>45000</v>
@@ -7170,7 +7465,7 @@
         <v>55500</v>
       </c>
       <c r="Q67" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9500</v>
       </c>
       <c r="R67" s="20">
@@ -7195,16 +7490,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F68" s="18">
         <v>4.4000000000000004</v>
@@ -7222,13 +7517,13 @@
         <v>3750</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="P68" s="18">
         <v>42000</v>
       </c>
       <c r="Q68" s="18">
-        <f t="shared" ref="Q68" si="4">P68-M68-N68</f>
+        <f t="shared" si="2"/>
         <v>6250</v>
       </c>
       <c r="R68" s="20">
@@ -7246,26 +7541,26 @@
     </row>
     <row r="69" spans="1:23" s="21" customFormat="1">
       <c r="A69" s="24">
-        <f t="shared" ref="A69:A127" si="5">ROW()-2</f>
+        <f t="shared" ref="A69:A127" si="3">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F69" s="18">
         <v>4.4000000000000004</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>20</v>
@@ -7295,7 +7590,7 @@
         <v>42000</v>
       </c>
       <c r="Q69" s="18">
-        <f t="shared" ref="Q69:Q73" si="6">P69-M69-N69</f>
+        <f t="shared" si="2"/>
         <v>7700</v>
       </c>
       <c r="R69" s="20">
@@ -7316,11 +7611,11 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>215</v>
@@ -7359,11 +7654,11 @@
         <v>1380</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-32380</v>
       </c>
       <c r="R70" s="8">
@@ -7382,17 +7677,17 @@
     </row>
     <row r="71" spans="1:23" s="21" customFormat="1">
       <c r="A71" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>197</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>52</v>
@@ -7421,13 +7716,13 @@
         <v>2300</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P71" s="18">
         <v>41000</v>
       </c>
       <c r="Q71" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9200</v>
       </c>
       <c r="R71" s="20">
@@ -7448,17 +7743,17 @@
     </row>
     <row r="72" spans="1:23" s="21" customFormat="1">
       <c r="A72" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>67</v>
@@ -7467,7 +7762,7 @@
         <v>5.2</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>20</v>
@@ -7491,13 +7786,13 @@
         <v>2250</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P72" s="18">
         <v>50000</v>
       </c>
       <c r="Q72" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9250</v>
       </c>
       <c r="R72" s="20">
@@ -7518,14 +7813,14 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>151</v>
@@ -7559,11 +7854,11 @@
         <v>1700</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-29700</v>
       </c>
       <c r="R73" s="8">
@@ -7582,17 +7877,17 @@
     </row>
     <row r="74" spans="1:23" s="21" customFormat="1">
       <c r="A74" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>101</v>
@@ -7601,7 +7896,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H74" s="26" t="s">
         <v>20</v>
@@ -7616,7 +7911,7 @@
         <v>29</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M74" s="18">
         <v>39000</v>
@@ -7625,13 +7920,13 @@
         <v>2900</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P74" s="18">
         <v>49000</v>
       </c>
       <c r="Q74" s="18">
-        <f t="shared" ref="Q74" si="7">P74-M74-N74</f>
+        <f t="shared" si="2"/>
         <v>7100</v>
       </c>
       <c r="R74" s="20">
@@ -7652,17 +7947,17 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>163</v>
@@ -7671,7 +7966,7 @@
         <v>6.9</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>33</v>
@@ -7686,7 +7981,7 @@
         <v>29</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M75" s="3">
         <v>57000</v>
@@ -7695,11 +7990,11 @@
         <v>3000</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="1">
-        <f t="shared" ref="Q75" si="8">P75-M75-N75</f>
+        <f t="shared" si="2"/>
         <v>-60000</v>
       </c>
       <c r="R75" s="8">
@@ -7718,28 +8013,32 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="12"/>
+      <c r="F76" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>293</v>
+      </c>
       <c r="H76" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>22</v>
@@ -7753,50 +8052,59 @@
       <c r="M76" s="3">
         <v>41000</v>
       </c>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
+      <c r="N76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>633</v>
+      </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="1">
-        <f t="shared" ref="Q76:Q80" si="9">P76-M76-N76</f>
-        <v>-41000</v>
-      </c>
-      <c r="R76" s="8"/>
+        <f t="shared" si="2"/>
+        <v>-43400</v>
+      </c>
+      <c r="R76" s="8">
+        <v>45708</v>
+      </c>
       <c r="S76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T76" s="8"/>
       <c r="U76" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="W76" s="6">
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F77" s="3">
         <v>8.5</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>41</v>
@@ -7814,11 +8122,11 @@
         <v>2400</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>-70400</v>
       </c>
       <c r="R77" s="8">
@@ -7837,26 +8145,26 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F78" s="3">
         <v>4.7</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>149</v>
@@ -7871,7 +8179,7 @@
         <v>29</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M78" s="3">
         <v>36000</v>
@@ -7880,11 +8188,11 @@
         <v>2600</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>-38600</v>
       </c>
       <c r="R78" s="8">
@@ -7903,17 +8211,17 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>197</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>67</v>
@@ -7922,7 +8230,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>20</v>
@@ -7946,11 +8254,11 @@
         <v>2000</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>-27000</v>
       </c>
       <c r="R79" s="8">
@@ -7969,17 +8277,17 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>62</v>
@@ -7991,7 +8299,7 @@
         <v>186</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>28</v>
@@ -8012,11 +8320,11 @@
         <v>2500</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>-34500</v>
       </c>
       <c r="R80" s="8">
@@ -8035,29 +8343,29 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F81" s="3">
         <v>4.3</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>28</v>
@@ -8078,11 +8386,11 @@
         <v>2800</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81:Q82" si="10">P81-M81-N81</f>
+        <f t="shared" si="2"/>
         <v>-31800</v>
       </c>
       <c r="R81" s="8">
@@ -8099,2955 +8407,3422 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" s="21" customFormat="1">
       <c r="A82" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="B82" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="18">
         <v>5.9</v>
       </c>
-      <c r="G82" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H82" s="12" t="s">
+      <c r="G82" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H82" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K82" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L82" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="M82" s="3">
+      <c r="L82" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M82" s="18">
         <v>46000</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="18">
         <v>1200</v>
       </c>
-      <c r="O82" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="1">
-        <f t="shared" si="10"/>
+      <c r="O82" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18">
+        <f t="shared" si="2"/>
         <v>-47200</v>
       </c>
-      <c r="R82" s="8">
+      <c r="R82" s="20">
         <v>45707</v>
       </c>
-      <c r="S82" s="3" t="s">
+      <c r="S82" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="T82" s="8"/>
-      <c r="U82" s="3" t="s">
+      <c r="T82" s="20"/>
+      <c r="U82" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W82" s="6">
+      <c r="W82" s="21">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="1">
+        <f t="shared" ref="Q83:Q86" si="4">P83-M83-N83</f>
+        <v>-36600</v>
+      </c>
+      <c r="R83" s="8">
+        <v>45708</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T83" s="8"/>
+      <c r="U83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W83" s="6">
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>82</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M84" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N84" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="1">
+        <f t="shared" si="4"/>
+        <v>-30000</v>
+      </c>
+      <c r="R84" s="8">
+        <v>45708</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T84" s="8"/>
+      <c r="U84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W84" s="6">
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>83</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M85" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N85" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="1">
+        <f t="shared" si="4"/>
+        <v>-30800</v>
+      </c>
+      <c r="R85" s="8">
+        <v>45708</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T85" s="8"/>
+      <c r="U85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W85" s="6">
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:23">
       <c r="A86" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>84</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M86" s="3">
+        <v>35000</v>
+      </c>
+      <c r="N86" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="1">
+        <f t="shared" si="4"/>
+        <v>-37100</v>
+      </c>
+      <c r="R86" s="8">
+        <v>45708</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T86" s="8"/>
+      <c r="U86" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W86" s="6">
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
-      <c r="A88" s="24">
-        <f t="shared" si="5"/>
+      <c r="B87" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F87" s="3">
+        <v>4</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M87" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="1">
+        <f t="shared" ref="Q87" si="5">P87-M87-N87</f>
+        <v>-28000</v>
+      </c>
+      <c r="R87" s="8">
+        <v>45708</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87" s="8"/>
+      <c r="U87" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="W87" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" s="41" customFormat="1">
+      <c r="A88" s="51">
+        <f t="shared" si="3"/>
         <v>86</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>622</v>
+      </c>
+      <c r="F88" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="M88" s="31">
+        <v>38000</v>
+      </c>
+      <c r="N88" s="31">
+        <v>2500</v>
+      </c>
+      <c r="O88" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31">
+        <f t="shared" ref="Q88" si="6">P88-M88-N88</f>
+        <v>-40500</v>
+      </c>
+      <c r="R88" s="40">
+        <v>45708</v>
+      </c>
+      <c r="S88" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T88" s="40"/>
+      <c r="U88" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="W88" s="41">
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>87</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M89" s="3">
+        <v>35000</v>
+      </c>
+      <c r="N89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="1">
+        <f t="shared" ref="Q89" si="7">P89-M89-N89</f>
+        <v>-37200</v>
+      </c>
+      <c r="R89" s="8">
+        <v>45708</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T89" s="8"/>
+      <c r="U89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W89" s="6">
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>88</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="1">
+        <f t="shared" ref="Q90" si="8">P90-M90-N90</f>
+        <v>0</v>
+      </c>
+      <c r="R90" s="8">
+        <v>45708</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T90" s="8"/>
+      <c r="U90" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="24">
-        <f t="shared" ref="A128:A191" si="11">ROW()-2</f>
+        <f t="shared" ref="A128:A191" si="9">ROW()-2</f>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="24">
-        <f t="shared" ref="A192:A255" si="12">ROW()-2</f>
+        <f t="shared" ref="A192:A255" si="10">ROW()-2</f>
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="24">
-        <f t="shared" ref="A256:A319" si="13">ROW()-2</f>
+        <f t="shared" ref="A256:A319" si="11">ROW()-2</f>
         <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="24">
-        <f t="shared" ref="A320:A383" si="14">ROW()-2</f>
+        <f t="shared" ref="A320:A383" si="12">ROW()-2</f>
         <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="24">
-        <f t="shared" ref="A384:A447" si="15">ROW()-2</f>
+        <f t="shared" ref="A384:A447" si="13">ROW()-2</f>
         <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>422</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>431</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>433</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>440</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>441</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>443</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="24">
-        <f t="shared" ref="A448:A511" si="16">ROW()-2</f>
+        <f t="shared" ref="A448:A511" si="14">ROW()-2</f>
         <v>446</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>447</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>449</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>453</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>454</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>455</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>457</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>458</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>459</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>461</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>462</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>463</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>464</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>465</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>466</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>467</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>468</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>470</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>471</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>472</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>473</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>474</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>476</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>477</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>478</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>480</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>481</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>482</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>484</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>485</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>486</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>487</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>490</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>491</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>492</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>493</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>494</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>495</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>496</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>497</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>498</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>502</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>503</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>504</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>506</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>507</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="24">
-        <f t="shared" ref="A512:A563" si="17">ROW()-2</f>
+        <f t="shared" ref="A512:A563" si="15">ROW()-2</f>
         <v>510</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>511</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>512</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>513</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>515</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>516</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>517</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>518</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>520</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>521</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>522</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>523</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>524</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>525</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>526</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>527</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>528</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>529</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>530</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>531</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>532</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>533</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>534</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>538</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>540</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>541</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>544</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>546</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>548</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>550</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>551</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>552</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>554</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>555</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>556</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>557</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>558</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>559</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>560</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>561</v>
       </c>
     </row>
@@ -66840,7 +67615,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S82" xr:uid="{3707277B-7B63-CE41-BE27-63742A3F8D35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S90" xr:uid="{3707277B-7B63-CE41-BE27-63742A3F8D35}">
       <formula1>"已售,在库"</formula1>
     </dataValidation>
   </dataValidations>
@@ -66851,10 +67626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E90EA8-8F58-3C40-AEB7-BD99C8550EC6}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -66869,21 +67644,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="48" t="s">
-        <v>581</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="A1" s="49" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="32">
       <c r="A2" s="16" t="s">
@@ -67012,7 +67787,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="24">
-        <f t="shared" ref="A5:A57" si="0">ROW()-2</f>
+        <f t="shared" ref="A5:A62" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -67157,7 +67932,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
@@ -67385,7 +68160,7 @@
         <v>175</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -67562,7 +68337,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>156</v>
@@ -67577,7 +68352,7 @@
         <v>3.2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>20</v>
@@ -67604,7 +68379,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>125</v>
@@ -67619,7 +68394,7 @@
         <v>1.8</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>20</v>
@@ -67646,10 +68421,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>27</v>
@@ -67661,7 +68436,7 @@
         <v>3.4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>20</v>
@@ -67688,16 +68463,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F21" s="3">
         <v>2.7</v>
@@ -67730,7 +68505,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -67745,7 +68520,7 @@
         <v>2.6</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>20</v>
@@ -67772,37 +68547,37 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="F23" s="12">
-        <v>16.600000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>30</v>
@@ -67814,37 +68589,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F24" s="12">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>30</v>
@@ -67856,37 +68631,37 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="F25" s="12">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>30</v>
@@ -67898,28 +68673,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="F26" s="12">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>22</v>
@@ -67928,7 +68703,7 @@
         <v>29</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>30</v>
@@ -67940,37 +68715,37 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>316</v>
+        <v>130</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F27" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>273</v>
+        <v>2.9</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>30</v>
@@ -67982,28 +68757,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="F28" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>294</v>
+        <v>3.7</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>22</v>
@@ -68012,7 +68787,7 @@
         <v>29</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>30</v>
@@ -68024,37 +68799,37 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="F29" s="12">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>30</v>
@@ -68065,29 +68840,29 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>339</v>
+      <c r="B30" s="11" t="s">
+        <v>346</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="F30" s="12">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>20</v>
+        <v>270</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
@@ -68096,7 +68871,7 @@
         <v>29</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>30</v>
@@ -68107,38 +68882,38 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>342</v>
+      <c r="B31" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="F31" s="12">
         <v>4.7</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>33</v>
+        <v>307</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>30</v>
@@ -68150,28 +68925,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="F32" s="12">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>22</v>
@@ -68180,7 +68955,7 @@
         <v>29</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>30</v>
@@ -68191,41 +68966,41 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>351</v>
+      <c r="B33" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>352</v>
+        <v>117</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F33" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H33" s="11" t="s">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>30</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -68233,29 +69008,29 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>354</v>
+      <c r="B34" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="F34" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>147</v>
+        <v>5.4</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>22</v>
@@ -68264,7 +69039,7 @@
         <v>29</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>30</v>
@@ -68276,40 +69051,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F35" s="12">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>406</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -68318,37 +69093,37 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>375</v>
+        <v>197</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="12">
-        <v>5.4</v>
+        <v>260</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>30</v>
@@ -68359,40 +69134,40 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M37" s="3" t="s">
+      <c r="B37" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -68402,37 +69177,37 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>383</v>
+        <v>472</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="12">
-        <v>4.0999999999999996</v>
+        <v>470</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.4</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>30</v>
@@ -68444,37 +69219,37 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3">
-        <v>4.5999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>30</v>
@@ -68485,40 +69260,40 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="31" t="s">
+      <c r="B40" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="M40" s="31" t="s">
+      <c r="L40" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -68528,37 +69303,37 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>472</v>
+        <v>260</v>
       </c>
       <c r="F41" s="3">
-        <v>1.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>334</v>
+        <v>193</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>30</v>
@@ -68570,37 +69345,37 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>397</v>
+        <v>199</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="F42" s="3">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>30</v>
@@ -68612,37 +69387,37 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>187</v>
+        <v>410</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
+        <v>412</v>
       </c>
       <c r="F43" s="3">
-        <v>2.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>30</v>
@@ -68654,37 +69429,37 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="F44" s="3">
-        <v>5.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>30</v>
@@ -68696,25 +69471,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
       <c r="F45" s="3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>174</v>
@@ -68726,7 +69501,7 @@
         <v>170</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>30</v>
@@ -68738,28 +69513,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>414</v>
+        <v>226</v>
       </c>
       <c r="F46" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>168</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>41</v>
@@ -68768,7 +69543,7 @@
         <v>170</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>30</v>
@@ -68780,25 +69555,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>326</v>
+        <v>459</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>54</v>
+        <v>460</v>
       </c>
       <c r="F47" s="3">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>422</v>
+        <v>333</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>174</v>
@@ -68810,7 +69585,7 @@
         <v>170</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>30</v>
@@ -68821,23 +69596,23 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>423</v>
+      <c r="B48" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>304</v>
+        <v>480</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>487</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="F48" s="3">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>168</v>
@@ -68852,7 +69627,7 @@
         <v>170</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>250</v>
+        <v>504</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>30</v>
@@ -68863,29 +69638,29 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>453</v>
+      <c r="B49" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>204</v>
+        <v>510</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="F49" s="3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>41</v>
@@ -68894,7 +69669,7 @@
         <v>170</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>30</v>
@@ -68905,38 +69680,38 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>459</v>
+      <c r="B50" s="3" t="s">
+        <v>563</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>361</v>
+        <v>564</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>462</v>
+        <v>566</v>
       </c>
       <c r="F50" s="3">
-        <v>4.4000000000000004</v>
+        <v>8.5</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>334</v>
+        <v>553</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>174</v>
+        <v>567</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>264</v>
+        <v>568</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>30</v>
@@ -68948,37 +69723,37 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>488</v>
+        <v>569</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>483</v>
+        <v>570</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="F51" s="3">
-        <v>6.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>174</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>507</v>
+        <v>203</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>30</v>
@@ -68990,37 +69765,37 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>325</v>
+        <v>574</v>
       </c>
       <c r="F52" s="3">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>511</v>
+        <v>284</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>166</v>
+        <v>550</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>174</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>30</v>
@@ -69032,37 +69807,37 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>571</v>
+        <v>366</v>
       </c>
       <c r="F53" s="3">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="G53" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="H53" s="12" t="s">
-        <v>169</v>
-      </c>
       <c r="I53" s="3" t="s">
-        <v>572</v>
+        <v>174</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>573</v>
+        <v>245</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>30</v>
@@ -69074,37 +69849,37 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>574</v>
+        <v>653</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>546</v>
+        <v>620</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>564</v>
+        <v>655</v>
       </c>
       <c r="F54" s="3">
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>169</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>174</v>
+        <v>635</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>170</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>203</v>
+        <v>652</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>30</v>
@@ -69116,25 +69891,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="F55" s="3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>285</v>
+        <v>636</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>554</v>
+        <v>169</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>174</v>
@@ -69146,7 +69921,7 @@
         <v>170</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>30</v>
@@ -69158,25 +69933,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>549</v>
+        <v>401</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>368</v>
+        <v>611</v>
       </c>
       <c r="F56" s="3">
         <v>4.3</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>562</v>
+        <v>168</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>174</v>
@@ -69188,7 +69963,7 @@
         <v>170</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>246</v>
+        <v>585</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>30</v>
@@ -69200,22 +69975,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>331</v>
+        <v>600</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>236</v>
+        <v>609</v>
       </c>
       <c r="F57" s="3">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>559</v>
+        <v>201</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>169</v>
@@ -69230,9 +70005,219 @@
         <v>170</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>346</v>
+        <v>584</v>
       </c>
       <c r="M57" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="24">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="24">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="24">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="24">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -69241,7 +70226,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:L57">
+  <conditionalFormatting sqref="A3:L62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -69254,8 +70239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A280AE-6CDB-F940-8F0F-7F575BF9ED92}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -69534,10 +70519,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -69551,7 +70536,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>173</v>
@@ -69568,10 +70553,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -69585,10 +70570,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -69602,13 +70587,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="6"/>
@@ -69619,7 +70604,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>48</v>
@@ -69635,11 +70620,11 @@
         <f>ROW()</f>
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
@@ -69653,10 +70638,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -69670,10 +70655,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -69687,7 +70672,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>197</v>
@@ -69704,7 +70689,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>165</v>
@@ -69720,11 +70705,11 @@
         <f>ROW()</f>
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -69738,10 +70723,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -69755,10 +70740,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
@@ -69772,10 +70757,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -69789,10 +70774,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
@@ -69807,7 +70792,7 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
@@ -69821,10 +70806,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
@@ -69838,10 +70823,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
@@ -69855,7 +70840,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>197</v>
@@ -69872,7 +70857,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>125</v>
@@ -69889,7 +70874,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>206</v>
@@ -69906,10 +70891,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D38" s="6">
         <v>2</v>
@@ -69923,7 +70908,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>55</v>
@@ -69940,10 +70925,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D40" s="6">
         <v>2</v>
@@ -69957,7 +70942,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>197</v>
@@ -69974,7 +70959,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>197</v>
@@ -69991,10 +70976,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
@@ -70008,7 +70993,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>187</v>
@@ -70025,10 +71010,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
@@ -70040,7 +71025,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>197</v>
@@ -70055,10 +71040,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
@@ -70070,7 +71055,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>112</v>
@@ -70085,7 +71070,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>112</v>
@@ -70099,11 +71084,11 @@
         <f>ROW()</f>
         <v>50</v>
       </c>
-      <c r="B50" s="50" t="s">
-        <v>445</v>
+      <c r="B50" s="48" t="s">
+        <v>443</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
@@ -70115,10 +71100,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
@@ -70130,7 +71115,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>215</v>
@@ -70145,10 +71130,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -70162,10 +71147,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA17A2-28EC-9E48-8F33-B176FE7D609D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -70180,19 +71165,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="45" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -70200,13 +71185,13 @@
         <v>45693</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E2" s="45">
         <v>300</v>
@@ -70217,13 +71202,13 @@
         <v>45696</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E3" s="45">
         <v>830</v>
@@ -70234,13 +71219,13 @@
         <v>45696</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E4" s="45">
         <v>50</v>
@@ -70251,13 +71236,13 @@
         <v>45697</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E5" s="45">
         <v>80</v>
@@ -70268,13 +71253,13 @@
         <v>45697</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E6" s="45">
         <v>200</v>
@@ -70285,13 +71270,13 @@
         <v>45697</v>
       </c>
       <c r="B7" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>532</v>
-      </c>
       <c r="D7" s="45" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E7" s="45">
         <v>220</v>
@@ -70302,13 +71287,13 @@
         <v>45697</v>
       </c>
       <c r="B8" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>532</v>
-      </c>
       <c r="D8" s="45" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E8" s="45">
         <v>220</v>
@@ -70319,13 +71304,13 @@
         <v>45698</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E9" s="45">
         <v>1500</v>
@@ -70336,10 +71321,10 @@
         <v>45698</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45">
@@ -70351,13 +71336,13 @@
         <v>45699</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E11" s="45">
         <v>780</v>
@@ -70368,13 +71353,13 @@
         <v>45699</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E12" s="45">
         <v>400</v>
@@ -70385,13 +71370,13 @@
         <v>45702</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E13" s="45">
         <v>200</v>
@@ -70402,13 +71387,13 @@
         <v>45705</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E14" s="45">
         <v>1400</v>
@@ -70419,16 +71404,50 @@
         <v>45706</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E15" s="6">
         <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="47">
+        <v>45706</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E16" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="47">
+        <v>45708</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="6">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
